--- a/Report/serial analysis KNN_v2.xlsx
+++ b/Report/serial analysis KNN_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipvit-my.sharepoint.com/personal/davide_ligari01_universitadipavia_it/Documents/aca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF3E8A4D-E4C1-4E73-A925-7CCBA812643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7D2E70-E05C-402E-AFB9-BF4BB269C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -224,7 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -542,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="88" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="D273" sqref="D273:D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -735,16 +734,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
@@ -759,17 +758,17 @@
         <f>2+C25*(C25*($J$4+2)+C25*($J$4+2)+(C25*LOG10(C25))+3*$J$6+$J$5)</f>
         <v>28</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f>2+C25*(C25*($J$4+2)+C25*($J$4+2)+(C25*LOG10(C25))+3*$J$6+$J$5)+(1+C25*(2+$J$4))+(1+C25*(2+$J$4))+$F$8</f>
         <v>60</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f>1/(G25+(F25/D25))</f>
         <v>1</v>
       </c>
@@ -787,17 +786,17 @@
         <f t="shared" ref="A26:A80" si="0">2+C26*(C26*($J$4+2)+C26*($J$4+2)+(C26*LOG10(C26))+3*$J$6+$J$5)</f>
         <v>389.4742501084005</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f>2+C26*(C26*($J$4+2)+C26*($J$4+2)+(C26*LOG10(C26))+3*$J$6+$J$5)+(1+C26*(2+$J$4))+(1+C26*(2+$J$4))+$F$8</f>
         <v>469.4742501084005</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f>1/(G26+(F26/D26))</f>
         <v>1</v>
       </c>
@@ -806,7 +805,7 @@
         <v>0.82959661795821993</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G80" si="1">1-F26</f>
+        <f t="shared" ref="G26:G89" si="1">1-F26</f>
         <v>0.17040338204178007</v>
       </c>
     </row>
@@ -815,17 +814,17 @@
         <f t="shared" si="0"/>
         <v>1442</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>2+C27*(C27*($J$4+2)+C27*($J$4+2)+(C27*LOG10(C27))+3*$J$6+$J$5)+(1+C27*(2+$J$4))+(1+C27*(2+$J$4))+$F$8</f>
         <v>1582</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>10</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" ref="E27:E80" si="2">1/(G27+(F27/D27))</f>
         <v>1</v>
       </c>
@@ -843,17 +842,17 @@
         <f t="shared" si="0"/>
         <v>34949.425010840052</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>2+C28*(C28*($J$4+2)+C28*($J$4+2)+(C28*LOG10(C28))+3*$J$6+$J$5)+(1+C28*(2+$J$4))+(1+C28*(2+$J$4))+$F$8</f>
         <v>35569.425010840052</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>50</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -871,17 +870,17 @@
         <f t="shared" si="0"/>
         <v>141402</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>2+C29*(C29*($J$4+2)+C29*($J$4+2)+(C29*LOG10(C29))+3*$J$6+$J$5)+(1+C29*(2+$J$4))+(1+C29*(2+$J$4))+$F$8</f>
         <v>142622</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>100</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -899,17 +898,17 @@
         <f t="shared" si="0"/>
         <v>15014002</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>2+C30*(C30*($J$4+2)+C30*($J$4+2)+(C30*LOG10(C30))+3*$J$6+$J$5)+(1+C30*(2+$J$4))+(1+C30*(2+$J$4))+$F$8</f>
         <v>15026022</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>1000</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -939,17 +938,17 @@
         <f t="shared" si="0"/>
         <v>1600140002</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f>2+C31*(C31*($J$4+2)+C31*($J$4+2)+(C31*LOG10(C31))+3*$J$6+$J$5)+(1+C31*(2+$J$4))+(1+C31*(2+$J$4))+$F$8</f>
         <v>1600260022</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>10000</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -976,17 +975,17 @@
         <f t="shared" si="0"/>
         <v>41748125012.84005</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <f>2+C32*(C32*($J$4+2)+C32*($J$4+2)+(C32*LOG10(C32))+3*$J$6+$J$5)+(1+C32*(2+$J$4))+(1+C32*(2+$J$4))+$F$8</f>
         <v>41748725032.84005</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>50000</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1017,19 +1016,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <f>2+C33*(C33*($J$4+2)+C33*($J$4+2)+(C33*LOG10(C33))+3*$J$6+$J$5)+(1+C33*(2+$J$4))+(1+C33*(2+$J$4))+$F$8</f>
         <v>60</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="5">
-        <v>5</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" si="2"/>
-        <v>1.5957446808510638</v>
+        <v>1.3043478260869565</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -1057,19 +1056,19 @@
         <f t="shared" si="0"/>
         <v>389.4742501084005</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <f>2+C34*(C34*($J$4+2)+C34*($J$4+2)+(C34*LOG10(C34))+3*$J$6+$J$5)+(1+C34*(2+$J$4))+(1+C34*(2+$J$4))+$F$8</f>
         <v>469.4742501084005</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" si="2"/>
-        <v>2.973334786055013</v>
+        <v>1.7088125604276541</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
@@ -1098,19 +1097,19 @@
         <f t="shared" si="0"/>
         <v>1442</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <f>2+C35*(C35*($J$4+2)+C35*($J$4+2)+(C35*LOG10(C35))+3*$J$6+$J$5)+(1+C35*(2+$J$4))+(1+C35*(2+$J$4))+$F$8</f>
         <v>1582</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>10</v>
       </c>
-      <c r="D35" s="5">
-        <v>5</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
         <f t="shared" si="2"/>
-        <v>3.6928104575163396</v>
+        <v>1.8373983739837396</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
@@ -1126,19 +1125,19 @@
         <f t="shared" si="0"/>
         <v>34949.425010840052</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <f>2+C36*(C36*($J$4+2)+C36*($J$4+2)+(C36*LOG10(C36))+3*$J$6+$J$5)+(1+C36*(2+$J$4))+(1+C36*(2+$J$4))+$F$8</f>
         <v>35569.425010840052</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>50</v>
       </c>
-      <c r="D36" s="5">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
         <f t="shared" si="2"/>
-        <v>4.6741080845119916</v>
+        <v>1.9657358468771313</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
@@ -1154,19 +1153,19 @@
         <f t="shared" si="0"/>
         <v>141402</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <f>2+C37*(C37*($J$4+2)+C37*($J$4+2)+(C37*LOG10(C37))+3*$J$6+$J$5)+(1+C37*(2+$J$4))+(1+C37*(2+$J$4))+$F$8</f>
         <v>142622</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>100</v>
       </c>
-      <c r="D37" s="5">
-        <v>5</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
         <f t="shared" si="2"/>
-        <v>4.8345785141896371</v>
+        <v>1.9830369433128017</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
@@ -1182,19 +1181,19 @@
         <f t="shared" si="0"/>
         <v>15014002</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f>2+C38*(C38*($J$4+2)+C38*($J$4+2)+(C38*LOG10(C38))+3*$J$6+$J$5)+(1+C38*(2+$J$4))+(1+C38*(2+$J$4))+$F$8</f>
         <v>15026022</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>1000</v>
       </c>
-      <c r="D38" s="5">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
         <f t="shared" si="2"/>
-        <v>4.9840521179968125</v>
+        <v>1.9984013876274582</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
@@ -1210,19 +1209,19 @@
         <f t="shared" si="0"/>
         <v>1600140002</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <f>2+C39*(C39*($J$4+2)+C39*($J$4+2)+(C39*LOG10(C39))+3*$J$6+$J$5)+(1+C39*(2+$J$4))+(1+C39*(2+$J$4))+$F$8</f>
         <v>1600260022</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>10000</v>
       </c>
-      <c r="D39" s="5">
-        <v>5</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
         <f t="shared" si="2"/>
-        <v>4.9985004436404123</v>
+        <v>1.9998500106264132</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
@@ -1238,19 +1237,19 @@
         <f t="shared" si="0"/>
         <v>41748125012.84005</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <f>2+C40*(C40*($J$4+2)+C40*($J$4+2)+(C40*LOG10(C40))+3*$J$6+$J$5)+(1+C40*(2+$J$4))+(1+C40*(2+$J$4))+$F$8</f>
         <v>41748725032.84005</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>50000</v>
       </c>
-      <c r="D40" s="5">
-        <v>5</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
         <f t="shared" si="2"/>
-        <v>4.9997125730152749</v>
+        <v>1.99997125606226</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
@@ -1266,19 +1265,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <f>2+C41*(C41*($J$4+2)+C41*($J$4+2)+(C41*LOG10(C41))+3*$J$6+$J$5)+(1+C41*(2+$J$4))+(1+C41*(2+$J$4))+$F$8</f>
         <v>60</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="D41" s="5">
-        <v>10</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6">
         <f t="shared" si="2"/>
-        <v>1.7241379310344829</v>
+        <v>1.4516129032258065</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
@@ -1294,19 +1293,19 @@
         <f t="shared" si="0"/>
         <v>389.4742501084005</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <f>2+C42*(C42*($J$4+2)+C42*($J$4+2)+(C42*LOG10(C42))+3*$J$6+$J$5)+(1+C42*(2+$J$4))+(1+C42*(2+$J$4))+$F$8</f>
         <v>469.4742501084005</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>5</v>
       </c>
-      <c r="D42" s="5">
-        <v>10</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="6">
         <f t="shared" si="2"/>
-        <v>3.9469055346563069</v>
+        <v>2.2374588795056507</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
@@ -1322,19 +1321,19 @@
         <f t="shared" si="0"/>
         <v>1442</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <f>2+C43*(C43*($J$4+2)+C43*($J$4+2)+(C43*LOG10(C43))+3*$J$6+$J$5)+(1+C43*(2+$J$4))+(1+C43*(2+$J$4))+$F$8</f>
         <v>1582</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>10</v>
       </c>
-      <c r="D43" s="5">
-        <v>10</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6">
         <f t="shared" si="2"/>
-        <v>5.5665024630541868</v>
+        <v>2.5488721804511276</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
@@ -1350,19 +1349,19 @@
         <f t="shared" si="0"/>
         <v>34949.425010840052</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <f>2+C44*(C44*($J$4+2)+C44*($J$4+2)+(C44*LOG10(C44))+3*$J$6+$J$5)+(1+C44*(2+$J$4))+(1+C44*(2+$J$4))+$F$8</f>
         <v>35569.425010840052</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>50</v>
       </c>
-      <c r="D44" s="5">
-        <v>10</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6">
         <f t="shared" si="2"/>
-        <v>8.6439664713346431</v>
+        <v>2.8989389266769447</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
@@ -1378,19 +1377,19 @@
         <f t="shared" si="0"/>
         <v>141402</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <f>2+C45*(C45*($J$4+2)+C45*($J$4+2)+(C45*LOG10(C45))+3*$J$6+$J$5)+(1+C45*(2+$J$4))+(1+C45*(2+$J$4))+$F$8</f>
         <v>142622</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>100</v>
       </c>
-      <c r="D45" s="5">
-        <v>10</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6">
         <f t="shared" si="2"/>
-        <v>9.2851655577401289</v>
+        <v>2.9495388178847661</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
@@ -1406,19 +1405,19 @@
         <f t="shared" si="0"/>
         <v>15014002</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <f>2+C46*(C46*($J$4+2)+C46*($J$4+2)+(C46*LOG10(C46))+3*$J$6+$J$5)+(1+C46*(2+$J$4))+(1+C46*(2+$J$4))+$F$8</f>
         <v>15026022</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>1000</v>
       </c>
-      <c r="D46" s="5">
-        <v>10</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6">
         <f t="shared" si="2"/>
-        <v>9.92851952154464</v>
+        <v>2.9952079931630844</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
@@ -1434,19 +1433,19 @@
         <f t="shared" si="0"/>
         <v>1600140002</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <f>2+C47*(C47*($J$4+2)+C47*($J$4+2)+(C47*LOG10(C47))+3*$J$6+$J$5)+(1+C47*(2+$J$4))+(1+C47*(2+$J$4))+$F$8</f>
         <v>1600260022</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>10000</v>
       </c>
-      <c r="D47" s="5">
-        <v>10</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="6">
         <f t="shared" si="2"/>
-        <v>9.9932545251867708</v>
+        <v>2.9995500656219276</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
@@ -1462,19 +1461,19 @@
         <f t="shared" si="0"/>
         <v>41748125012.84005</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <f>2+C48*(C48*($J$4+2)+C48*($J$4+2)+(C48*LOG10(C48))+3*$J$6+$J$5)+(1+C48*(2+$J$4))+(1+C48*(2+$J$4))+$F$8</f>
         <v>41748725032.84005</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>50000</v>
       </c>
-      <c r="D48" s="5">
-        <v>10</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="D48" s="4">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6">
         <f t="shared" si="2"/>
-        <v>9.9987066715031165</v>
+        <v>2.9999137694260836</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
@@ -1490,19 +1489,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <f>2+C49*(C49*($J$4+2)+C49*($J$4+2)+(C49*LOG10(C49))+3*$J$6+$J$5)+(1+C49*(2+$J$4))+(1+C49*(2+$J$4))+$F$8</f>
         <v>60</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49" s="5">
-        <v>15</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6">
         <f t="shared" si="2"/>
-        <v>1.7716535433070868</v>
+        <v>1.5384615384615383</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
@@ -1518,19 +1517,19 @@
         <f t="shared" si="0"/>
         <v>389.4742501084005</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <f>2+C50*(C50*($J$4+2)+C50*($J$4+2)+(C50*LOG10(C50))+3*$J$6+$J$5)+(1+C50*(2+$J$4))+(1+C50*(2+$J$4))+$F$8</f>
         <v>469.4742501084005</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>15</v>
-      </c>
-      <c r="E50" s="7">
+      <c r="D50" s="4">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6">
         <f t="shared" si="2"/>
-        <v>4.4304673392134184</v>
+        <v>2.646885352282593</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
@@ -1546,19 +1545,19 @@
         <f t="shared" si="0"/>
         <v>1442</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <f>2+C51*(C51*($J$4+2)+C51*($J$4+2)+(C51*LOG10(C51))+3*$J$6+$J$5)+(1+C51*(2+$J$4))+(1+C51*(2+$J$4))+$F$8</f>
         <v>1582</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>10</v>
       </c>
-      <c r="D51" s="5">
-        <v>15</v>
-      </c>
-      <c r="E51" s="7">
+      <c r="D51" s="4">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6">
         <f t="shared" si="2"/>
-        <v>6.6996047430830021</v>
+        <v>3.1608391608391608</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
@@ -1574,19 +1573,19 @@
         <f t="shared" si="0"/>
         <v>34949.425010840052</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <f>2+C52*(C52*($J$4+2)+C52*($J$4+2)+(C52*LOG10(C52))+3*$J$6+$J$5)+(1+C52*(2+$J$4))+(1+C52*(2+$J$4))+$F$8</f>
         <v>35569.425010840052</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>50</v>
       </c>
-      <c r="D52" s="5">
-        <v>15</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="D52" s="4">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6">
         <f t="shared" si="2"/>
-        <v>12.057588884644174</v>
+        <v>3.8012259072148376</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
@@ -1602,19 +1601,19 @@
         <f t="shared" si="0"/>
         <v>141402</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <f>2+C53*(C53*($J$4+2)+C53*($J$4+2)+(C53*LOG10(C53))+3*$J$6+$J$5)+(1+C53*(2+$J$4))+(1+C53*(2+$J$4))+$F$8</f>
         <v>142622</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>100</v>
       </c>
-      <c r="D53" s="5">
-        <v>15</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="D53" s="4">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6">
         <f t="shared" si="2"/>
-        <v>13.395762106924138</v>
+        <v>3.8999193338893359</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
@@ -1630,19 +1629,19 @@
         <f t="shared" si="0"/>
         <v>15014002</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <f>2+C54*(C54*($J$4+2)+C54*($J$4+2)+(C54*LOG10(C54))+3*$J$6+$J$5)+(1+C54*(2+$J$4))+(1+C54*(2+$J$4))+$F$8</f>
         <v>15026022</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>1000</v>
       </c>
-      <c r="D54" s="5">
-        <v>15</v>
-      </c>
-      <c r="E54" s="7">
+      <c r="D54" s="4">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6">
         <f t="shared" si="2"/>
-        <v>14.833871934360651</v>
+        <v>3.9904236346608655</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
@@ -1658,19 +1657,19 @@
         <f t="shared" si="0"/>
         <v>1600140002</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <f>2+C55*(C55*($J$4+2)+C55*($J$4+2)+(C55*LOG10(C55))+3*$J$6+$J$5)+(1+C55*(2+$J$4))+(1+C55*(2+$J$4))+$F$8</f>
         <v>1600260022</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>10000</v>
       </c>
-      <c r="D55" s="5">
-        <v>15</v>
-      </c>
-      <c r="E55" s="7">
+      <c r="D55" s="4">
+        <v>4</v>
+      </c>
+      <c r="E55" s="6">
         <f t="shared" si="2"/>
-        <v>14.984266454893143</v>
+        <v>3.9991001987191113</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
@@ -1686,19 +1685,19 @@
         <f t="shared" si="0"/>
         <v>41748125012.84005</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <f>2+C56*(C56*($J$4+2)+C56*($J$4+2)+(C56*LOG10(C56))+3*$J$6+$J$5)+(1+C56*(2+$J$4))+(1+C56*(2+$J$4))+$F$8</f>
         <v>41748725032.84005</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>50000</v>
       </c>
-      <c r="D56" s="5">
-        <v>15</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="D56" s="4">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6">
         <f t="shared" si="2"/>
-        <v>14.996982450322996</v>
+        <v>3.9998275413307014</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
@@ -1714,19 +1713,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <f>2+C57*(C57*($J$4+2)+C57*($J$4+2)+(C57*LOG10(C57))+3*$J$6+$J$5)+(1+C57*(2+$J$4))+(1+C57*(2+$J$4))+$F$8</f>
         <v>60</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>1</v>
       </c>
-      <c r="D57" s="5">
-        <v>20</v>
-      </c>
-      <c r="E57" s="7">
+      <c r="D57" s="4">
+        <v>5</v>
+      </c>
+      <c r="E57" s="6">
         <f t="shared" si="2"/>
-        <v>1.7964071856287427</v>
+        <v>1.5957446808510638</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
@@ -1742,19 +1741,19 @@
         <f t="shared" si="0"/>
         <v>389.4742501084005</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <f>2+C58*(C58*($J$4+2)+C58*($J$4+2)+(C58*LOG10(C58))+3*$J$6+$J$5)+(1+C58*(2+$J$4))+(1+C58*(2+$J$4))+$F$8</f>
         <v>469.4742501084005</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>5</v>
       </c>
-      <c r="D58" s="5">
-        <v>20</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="D58" s="4">
+        <v>5</v>
+      </c>
+      <c r="E58" s="6">
         <f t="shared" si="2"/>
-        <v>4.7195810660310915</v>
+        <v>2.973334786055013</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
@@ -1770,19 +1769,19 @@
         <f t="shared" si="0"/>
         <v>1442</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <f>2+C59*(C59*($J$4+2)+C59*($J$4+2)+(C59*LOG10(C59))+3*$J$6+$J$5)+(1+C59*(2+$J$4))+(1+C59*(2+$J$4))+$F$8</f>
         <v>1582</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>10</v>
       </c>
-      <c r="D59" s="5">
-        <v>20</v>
-      </c>
-      <c r="E59" s="7">
+      <c r="D59" s="4">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6">
         <f t="shared" si="2"/>
-        <v>7.458745874587458</v>
+        <v>3.6928104575163396</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
@@ -1798,19 +1797,19 @@
         <f t="shared" si="0"/>
         <v>34949.425010840052</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <f>2+C60*(C60*($J$4+2)+C60*($J$4+2)+(C60*LOG10(C60))+3*$J$6+$J$5)+(1+C60*(2+$J$4))+(1+C60*(2+$J$4))+$F$8</f>
         <v>35569.425010840052</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>50</v>
       </c>
-      <c r="D60" s="5">
-        <v>20</v>
-      </c>
-      <c r="E60" s="7">
+      <c r="D60" s="4">
+        <v>5</v>
+      </c>
+      <c r="E60" s="6">
         <f t="shared" si="2"/>
-        <v>15.024226800091823</v>
+        <v>4.6741080845119916</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
@@ -1826,19 +1825,19 @@
         <f t="shared" si="0"/>
         <v>141402</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <f>2+C61*(C61*($J$4+2)+C61*($J$4+2)+(C61*LOG10(C61))+3*$J$6+$J$5)+(1+C61*(2+$J$4))+(1+C61*(2+$J$4))+$F$8</f>
         <v>142622</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>100</v>
       </c>
-      <c r="D61" s="5">
-        <v>20</v>
-      </c>
-      <c r="E61" s="7">
+      <c r="D61" s="4">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6">
         <f t="shared" si="2"/>
-        <v>17.203893801039779</v>
+        <v>4.8345785141896371</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
@@ -1854,19 +1853,19 @@
         <f t="shared" si="0"/>
         <v>15014002</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <f>2+C62*(C62*($J$4+2)+C62*($J$4+2)+(C62*LOG10(C62))+3*$J$6+$J$5)+(1+C62*(2+$J$4))+(1+C62*(2+$J$4))+$F$8</f>
         <v>15026022</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>1000</v>
       </c>
-      <c r="D62" s="5">
-        <v>20</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="D62" s="4">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6">
         <f t="shared" si="2"/>
-        <v>19.700571677604916</v>
+        <v>4.9840521179968125</v>
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
@@ -1882,19 +1881,19 @@
         <f t="shared" si="0"/>
         <v>1600140002</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <f>2+C63*(C63*($J$4+2)+C63*($J$4+2)+(C63*LOG10(C63))+3*$J$6+$J$5)+(1+C63*(2+$J$4))+(1+C63*(2+$J$4))+$F$8</f>
         <v>1600260022</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>10000</v>
       </c>
-      <c r="D63" s="5">
-        <v>20</v>
-      </c>
-      <c r="E63" s="7">
+      <c r="D63" s="4">
+        <v>5</v>
+      </c>
+      <c r="E63" s="6">
         <f t="shared" si="2"/>
-        <v>19.971540436707183</v>
+        <v>4.9985004436404123</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
@@ -1910,19 +1909,19 @@
         <f t="shared" si="0"/>
         <v>41748125012.84005</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <f>2+C64*(C64*($J$4+2)+C64*($J$4+2)+(C64*LOG10(C64))+3*$J$6+$J$5)+(1+C64*(2+$J$4))+(1+C64*(2+$J$4))+$F$8</f>
         <v>41748725032.84005</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>50000</v>
       </c>
-      <c r="D64" s="5">
-        <v>20</v>
-      </c>
-      <c r="E64" s="7">
+      <c r="D64" s="4">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6">
         <f t="shared" si="2"/>
-        <v>19.994540064289875</v>
+        <v>4.9997125730152749</v>
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
@@ -1938,19 +1937,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <f>2+C65*(C65*($J$4+2)+C65*($J$4+2)+(C65*LOG10(C65))+3*$J$6+$J$5)+(1+C65*(2+$J$4))+(1+C65*(2+$J$4))+$F$8</f>
         <v>60</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>1</v>
       </c>
-      <c r="D65" s="5">
-        <v>25</v>
-      </c>
-      <c r="E65" s="7">
+      <c r="D65" s="4">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6">
         <f t="shared" si="2"/>
-        <v>1.8115942028985506</v>
+        <v>1.6363636363636362</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
@@ -1966,19 +1965,19 @@
         <f t="shared" si="0"/>
         <v>389.4742501084005</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <f>2+C66*(C66*($J$4+2)+C66*($J$4+2)+(C66*LOG10(C66))+3*$J$6+$J$5)+(1+C66*(2+$J$4))+(1+C66*(2+$J$4))+$F$8</f>
         <v>469.4742501084005</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>5</v>
       </c>
-      <c r="D66" s="5">
-        <v>25</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="D66" s="4">
+        <v>6</v>
+      </c>
+      <c r="E66" s="6">
         <f t="shared" si="2"/>
-        <v>4.9118990305828003</v>
+        <v>3.239711239636156</v>
       </c>
       <c r="F66">
         <f t="shared" si="3"/>
@@ -1994,19 +1993,19 @@
         <f t="shared" si="0"/>
         <v>1442</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <f>2+C67*(C67*($J$4+2)+C67*($J$4+2)+(C67*LOG10(C67))+3*$J$6+$J$5)+(1+C67*(2+$J$4))+(1+C67*(2+$J$4))+$F$8</f>
         <v>1582</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>10</v>
       </c>
-      <c r="D67" s="5">
-        <v>25</v>
-      </c>
-      <c r="E67" s="7">
+      <c r="D67" s="4">
+        <v>6</v>
+      </c>
+      <c r="E67" s="6">
         <f t="shared" si="2"/>
-        <v>8.0028328611898001</v>
+        <v>4.1595092024539868</v>
       </c>
       <c r="F67">
         <f t="shared" si="3"/>
@@ -2022,19 +2021,19 @@
         <f t="shared" si="0"/>
         <v>34949.425010840052</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <f>2+C68*(C68*($J$4+2)+C68*($J$4+2)+(C68*LOG10(C68))+3*$J$6+$J$5)+(1+C68*(2+$J$4))+(1+C68*(2+$J$4))+$F$8</f>
         <v>35569.425010840052</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>50</v>
       </c>
-      <c r="D68" s="5">
-        <v>25</v>
-      </c>
-      <c r="E68" s="7">
+      <c r="D68" s="4">
+        <v>6</v>
+      </c>
+      <c r="E68" s="6">
         <f t="shared" si="2"/>
-        <v>17.626278695543739</v>
+        <v>5.518999830103863</v>
       </c>
       <c r="F68">
         <f t="shared" si="3"/>
@@ -2050,19 +2049,19 @@
         <f t="shared" si="0"/>
         <v>141402</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <f>2+C69*(C69*($J$4+2)+C69*($J$4+2)+(C69*LOG10(C69))+3*$J$6+$J$5)+(1+C69*(2+$J$4))+(1+C69*(2+$J$4))+$F$8</f>
         <v>142622</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>100</v>
       </c>
-      <c r="D69" s="5">
-        <v>25</v>
-      </c>
-      <c r="E69" s="7">
+      <c r="D69" s="4">
+        <v>6</v>
+      </c>
+      <c r="E69" s="6">
         <f t="shared" si="2"/>
-        <v>20.741759839908763</v>
+        <v>5.7539032557388943</v>
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
@@ -2078,19 +2077,19 @@
         <f t="shared" si="0"/>
         <v>15014002</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <f>2+C70*(C70*($J$4+2)+C70*($J$4+2)+(C70*LOG10(C70))+3*$J$6+$J$5)+(1+C70*(2+$J$4))+(1+C70*(2+$J$4))+$F$8</f>
         <v>15026022</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>1000</v>
       </c>
-      <c r="D70" s="5">
-        <v>25</v>
-      </c>
-      <c r="E70" s="7">
+      <c r="D70" s="4">
+        <v>6</v>
+      </c>
+      <c r="E70" s="6">
         <f t="shared" si="2"/>
-        <v>24.529073815132854</v>
+        <v>5.9760972369174787</v>
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
@@ -2106,19 +2105,19 @@
         <f t="shared" si="0"/>
         <v>1600140002</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <f>2+C71*(C71*($J$4+2)+C71*($J$4+2)+(C71*LOG10(C71))+3*$J$6+$J$5)+(1+C71*(2+$J$4))+(1+C71*(2+$J$4))+$F$8</f>
         <v>1600260022</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>10000</v>
       </c>
-      <c r="D71" s="5">
-        <v>25</v>
-      </c>
-      <c r="E71" s="7">
+      <c r="D71" s="4">
+        <v>6</v>
+      </c>
+      <c r="E71" s="6">
         <f t="shared" si="2"/>
-        <v>24.955080668281923</v>
+        <v>5.99775083409817</v>
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
@@ -2134,19 +2133,19 @@
         <f t="shared" si="0"/>
         <v>41748125012.84005</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <f>2+C72*(C72*($J$4+2)+C72*($J$4+2)+(C72*LOG10(C72))+3*$J$6+$J$5)+(1+C72*(2+$J$4))+(1+C72*(2+$J$4))+$F$8</f>
         <v>41748725032.84005</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>50000</v>
       </c>
-      <c r="D72" s="5">
-        <v>25</v>
-      </c>
-      <c r="E72" s="7">
+      <c r="D72" s="4">
+        <v>6</v>
+      </c>
+      <c r="E72" s="6">
         <f t="shared" si="2"/>
-        <v>24.99137966817425</v>
+        <v>5.9995688657188948</v>
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
@@ -2162,19 +2161,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <f>2+C73*(C73*($J$4+2)+C73*($J$4+2)+(C73*LOG10(C73))+3*$J$6+$J$5)+(1+C73*(2+$J$4))+(1+C73*(2+$J$4))+$F$8</f>
         <v>60</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>1</v>
       </c>
-      <c r="D73" s="5">
-        <v>30</v>
-      </c>
-      <c r="E73" s="7">
+      <c r="D73" s="4">
+        <v>7</v>
+      </c>
+      <c r="E73" s="6">
         <f t="shared" si="2"/>
-        <v>1.8218623481781377</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
@@ -2190,19 +2189,19 @@
         <f t="shared" si="0"/>
         <v>389.4742501084005</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <f>2+C74*(C74*($J$4+2)+C74*($J$4+2)+(C74*LOG10(C74))+3*$J$6+$J$5)+(1+C74*(2+$J$4))+(1+C74*(2+$J$4))+$F$8</f>
         <v>469.4742501084005</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>5</v>
       </c>
-      <c r="D74" s="5">
-        <v>30</v>
-      </c>
-      <c r="E74" s="7">
+      <c r="D74" s="4">
+        <v>7</v>
+      </c>
+      <c r="E74" s="6">
         <f t="shared" si="2"/>
-        <v>5.0490616655467235</v>
+        <v>3.4611994484143289</v>
       </c>
       <c r="F74">
         <f t="shared" si="3"/>
@@ -2218,19 +2217,19 @@
         <f t="shared" si="0"/>
         <v>1442</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <f>2+C75*(C75*($J$4+2)+C75*($J$4+2)+(C75*LOG10(C75))+3*$J$6+$J$5)+(1+C75*(2+$J$4))+(1+C75*(2+$J$4))+$F$8</f>
         <v>1582</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>10</v>
       </c>
-      <c r="D75" s="5">
-        <v>30</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="D75" s="4">
+        <v>7</v>
+      </c>
+      <c r="E75" s="6">
         <f t="shared" si="2"/>
-        <v>8.4119106699751836</v>
+        <v>4.5722543352601148</v>
       </c>
       <c r="F75">
         <f t="shared" si="3"/>
@@ -2246,19 +2245,19 @@
         <f t="shared" si="0"/>
         <v>34949.425010840052</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <f>2+C76*(C76*($J$4+2)+C76*($J$4+2)+(C76*LOG10(C76))+3*$J$6+$J$5)+(1+C76*(2+$J$4))+(1+C76*(2+$J$4))+$F$8</f>
         <v>35569.425010840052</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>50</v>
       </c>
-      <c r="D76" s="5">
-        <v>30</v>
-      </c>
-      <c r="E76" s="7">
+      <c r="D76" s="4">
+        <v>7</v>
+      </c>
+      <c r="E76" s="6">
         <f t="shared" si="2"/>
-        <v>19.927062710929043</v>
+        <v>6.3372262385408931</v>
       </c>
       <c r="F76">
         <f t="shared" si="3"/>
@@ -2274,19 +2273,19 @@
         <f t="shared" si="0"/>
         <v>141402</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <f>2+C77*(C77*($J$4+2)+C77*($J$4+2)+(C77*LOG10(C77))+3*$J$6+$J$5)+(1+C77*(2+$J$4))+(1+C77*(2+$J$4))+$F$8</f>
         <v>142622</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>100</v>
       </c>
-      <c r="D77" s="5">
-        <v>30</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="D77" s="4">
+        <v>7</v>
+      </c>
+      <c r="E77" s="6">
         <f t="shared" si="2"/>
-        <v>24.037145650048849</v>
+        <v>6.6582678635739141</v>
       </c>
       <c r="F77">
         <f t="shared" si="3"/>
@@ -2302,19 +2301,19 @@
         <f t="shared" si="0"/>
         <v>15014002</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <f>2+C78*(C78*($J$4+2)+C78*($J$4+2)+(C78*LOG10(C78))+3*$J$6+$J$5)+(1+C78*(2+$J$4))+(1+C78*(2+$J$4))+$F$8</f>
         <v>15026022</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>1000</v>
       </c>
-      <c r="D78" s="5">
-        <v>30</v>
-      </c>
-      <c r="E78" s="7">
+      <c r="D78" s="4">
+        <v>7</v>
+      </c>
+      <c r="E78" s="6">
         <f t="shared" si="2"/>
-        <v>29.319826295340821</v>
+        <v>6.9665627730882376</v>
       </c>
       <c r="F78">
         <f t="shared" si="3"/>
@@ -2330,19 +2329,19 @@
         <f t="shared" si="0"/>
         <v>1600140002</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <f>2+C79*(C79*($J$4+2)+C79*($J$4+2)+(C79*LOG10(C79))+3*$J$6+$J$5)+(1+C79*(2+$J$4))+(1+C79*(2+$J$4))+$F$8</f>
         <v>1600260022</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>10000</v>
       </c>
-      <c r="D79" s="5">
-        <v>30</v>
-      </c>
-      <c r="E79" s="7">
+      <c r="D79" s="4">
+        <v>7</v>
+      </c>
+      <c r="E79" s="6">
         <f t="shared" si="2"/>
-        <v>29.934891340987555</v>
+        <v>6.9968514037946123</v>
       </c>
       <c r="F79">
         <f t="shared" si="3"/>
@@ -2358,19 +2357,19 @@
         <f t="shared" si="0"/>
         <v>41748125012.84005</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <f>2+C80*(C80*($J$4+2)+C80*($J$4+2)+(C80*LOG10(C80))+3*$J$6+$J$5)+(1+C80*(2+$J$4))+(1+C80*(2+$J$4))+$F$8</f>
         <v>41748725032.84005</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>50000</v>
       </c>
-      <c r="D80" s="5">
-        <v>30</v>
-      </c>
-      <c r="E80" s="7">
+      <c r="D80" s="4">
+        <v>7</v>
+      </c>
+      <c r="E80" s="6">
         <f t="shared" si="2"/>
-        <v>29.98750141670212</v>
+        <v>6.9993964206805765</v>
       </c>
       <c r="F80">
         <f t="shared" si="3"/>
@@ -2381,183 +2380,5606 @@
         <v>1.4372175426435874E-5</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="4:5">
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="4:5">
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="4:5">
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="4:5">
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="4:5">
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="4:5">
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="4:5">
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="4:5">
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="4:5">
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="4:5">
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="4:5">
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="4:5">
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="4:5">
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="4:5">
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="4:5">
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="4:5">
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="4:5">
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="4:5">
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="4:5">
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="4:5">
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="4:5">
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="4:5">
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="4:5">
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="4:5">
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="4:5">
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="4:5">
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="4:5">
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="4:5">
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="4:5">
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="4:5">
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="4:5">
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="4:5">
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="4:5">
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="4:5">
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="4:5">
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="4:5">
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="4:5">
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="4:5">
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="4:5">
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="4:5">
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="4:5">
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="4:5">
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="4:5">
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="4:5"/>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <f t="shared" ref="A81:A128" si="5">2+C81*(C81*($J$4+2)+C81*($J$4+2)+(C81*LOG10(C81))+3*$J$6+$J$5)</f>
+        <v>28</v>
+      </c>
+      <c r="B81" s="5">
+        <f>2+C81*(C81*($J$4+2)+C81*($J$4+2)+(C81*LOG10(C81))+3*$J$6+$J$5)+(1+C81*(2+$J$4))+(1+C81*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>8</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" ref="E81:E128" si="6">1/(G81+(F81/D81))</f>
+        <v>1.6901408450704225</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ref="F81:F128" si="7">A81/B81</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B82" s="5">
+        <f>2+C82*(C82*($J$4+2)+C82*($J$4+2)+(C82*LOG10(C82))+3*$J$6+$J$5)+(1+C82*(2+$J$4))+(1+C82*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C82" s="4">
+        <v>5</v>
+      </c>
+      <c r="D82" s="4">
+        <v>8</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="6"/>
+        <v>3.6482641508242972</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>1442</v>
+      </c>
+      <c r="B83" s="5">
+        <f>2+C83*(C83*($J$4+2)+C83*($J$4+2)+(C83*LOG10(C83))+3*$J$6+$J$5)+(1+C83*(2+$J$4))+(1+C83*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C83" s="4">
+        <v>10</v>
+      </c>
+      <c r="D83" s="4">
+        <v>8</v>
+      </c>
+      <c r="E83" s="6">
+        <f t="shared" si="6"/>
+        <v>4.9398907103825138</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="7"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B84" s="5">
+        <f>2+C84*(C84*($J$4+2)+C84*($J$4+2)+(C84*LOG10(C84))+3*$J$6+$J$5)+(1+C84*(2+$J$4))+(1+C84*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C84" s="4">
+        <v>50</v>
+      </c>
+      <c r="D84" s="4">
+        <v>8</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" si="6"/>
+        <v>7.1300300620575356</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="7"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <f t="shared" si="5"/>
+        <v>141402</v>
+      </c>
+      <c r="B85" s="5">
+        <f>2+C85*(C85*($J$4+2)+C85*($J$4+2)+(C85*LOG10(C85))+3*$J$6+$J$5)+(1+C85*(2+$J$4))+(1+C85*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C85" s="4">
+        <v>100</v>
+      </c>
+      <c r="D85" s="4">
+        <v>8</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="6"/>
+        <v>7.5480345589499978</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="7"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <f t="shared" si="5"/>
+        <v>15014002</v>
+      </c>
+      <c r="B86" s="5">
+        <f>2+C86*(C86*($J$4+2)+C86*($J$4+2)+(C86*LOG10(C86))+3*$J$6+$J$5)+(1+C86*(2+$J$4))+(1+C86*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D86" s="4">
+        <v>8</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="6"/>
+        <v>7.9554524961413371</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <f t="shared" si="5"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B87" s="5">
+        <f>2+C87*(C87*($J$4+2)+C87*($J$4+2)+(C87*LOG10(C87))+3*$J$6+$J$5)+(1+C87*(2+$J$4))+(1+C87*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C87" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D87" s="4">
+        <v>8</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="6"/>
+        <v>7.9958021864218631</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <f t="shared" si="5"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B88" s="5">
+        <f>2+C88*(C88*($J$4+2)+C88*($J$4+2)+(C88*LOG10(C88))+3*$J$6+$J$5)+(1+C88*(2+$J$4))+(1+C88*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C88" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D88" s="4">
+        <v>8</v>
+      </c>
+      <c r="E88" s="6">
+        <f t="shared" si="6"/>
+        <v>7.9991952391392696</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="7"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B89" s="5">
+        <f>2+C89*(C89*($J$4+2)+C89*($J$4+2)+(C89*LOG10(C89))+3*$J$6+$J$5)+(1+C89*(2+$J$4))+(1+C89*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>9</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7088607594936711</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="7"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <f t="shared" si="5"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B90" s="5">
+        <f>2+C90*(C90*($J$4+2)+C90*($J$4+2)+(C90*LOG10(C90))+3*$J$6+$J$5)+(1+C90*(2+$J$4))+(1+C90*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C90" s="4">
+        <v>5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>9</v>
+      </c>
+      <c r="E90" s="6">
+        <f t="shared" si="6"/>
+        <v>3.8083517941608629</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="7"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90:G128" si="8">1-F90</f>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <f t="shared" si="5"/>
+        <v>1442</v>
+      </c>
+      <c r="B91" s="5">
+        <f>2+C91*(C91*($J$4+2)+C91*($J$4+2)+(C91*LOG10(C91))+3*$J$6+$J$5)+(1+C91*(2+$J$4))+(1+C91*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C91" s="4">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4">
+        <v>9</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="6"/>
+        <v>5.2694300518134707</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="7"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <f t="shared" si="5"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B92" s="5">
+        <f>2+C92*(C92*($J$4+2)+C92*($J$4+2)+(C92*LOG10(C92))+3*$J$6+$J$5)+(1+C92*(2+$J$4))+(1+C92*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C92" s="4">
+        <v>50</v>
+      </c>
+      <c r="D92" s="4">
+        <v>9</v>
+      </c>
+      <c r="E92" s="6">
+        <f t="shared" si="6"/>
+        <v>7.8985780087415387</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="7"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <f t="shared" si="5"/>
+        <v>141402</v>
+      </c>
+      <c r="B93" s="5">
+        <f>2+C93*(C93*($J$4+2)+C93*($J$4+2)+(C93*LOG10(C93))+3*$J$6+$J$5)+(1+C93*(2+$J$4))+(1+C93*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C93" s="4">
+        <v>100</v>
+      </c>
+      <c r="D93" s="4">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6">
+        <f t="shared" si="6"/>
+        <v>8.4235539630665013</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="7"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <f t="shared" si="5"/>
+        <v>15014002</v>
+      </c>
+      <c r="B94" s="5">
+        <f>2+C94*(C94*($J$4+2)+C94*($J$4+2)+(C94*LOG10(C94))+3*$J$6+$J$5)+(1+C94*(2+$J$4))+(1+C94*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D94" s="4">
+        <v>9</v>
+      </c>
+      <c r="E94" s="6">
+        <f t="shared" si="6"/>
+        <v>8.9427701637237238</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="7"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <f t="shared" si="5"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B95" s="5">
+        <f>2+C95*(C95*($J$4+2)+C95*($J$4+2)+(C95*LOG10(C95))+3*$J$6+$J$5)+(1+C95*(2+$J$4))+(1+C95*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C95" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D95" s="4">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6">
+        <f t="shared" si="6"/>
+        <v>8.9946032156619413</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="7"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <f t="shared" si="5"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B96" s="5">
+        <f>2+C96*(C96*($J$4+2)+C96*($J$4+2)+(C96*LOG10(C96))+3*$J$6+$J$5)+(1+C96*(2+$J$4))+(1+C96*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C96" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D96" s="4">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6">
+        <f t="shared" si="6"/>
+        <v>8.9989653223338486</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="7"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B97" s="5">
+        <f>2+C97*(C97*($J$4+2)+C97*($J$4+2)+(C97*LOG10(C97))+3*$J$6+$J$5)+(1+C97*(2+$J$4))+(1+C97*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <v>10</v>
+      </c>
+      <c r="E97" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7241379310344829</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="7"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <f>2+C98*(C98*($J$4+2)+C98*($J$4+2)+(C98*LOG10(C98))+3*$J$6+$J$5)</f>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B98" s="5">
+        <f>2+C98*(C98*($J$4+2)+C98*($J$4+2)+(C98*LOG10(C98))+3*$J$6+$J$5)+(1+C98*(2+$J$4))+(1+C98*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C98" s="4">
+        <v>5</v>
+      </c>
+      <c r="D98" s="4">
+        <v>10</v>
+      </c>
+      <c r="E98" s="6">
+        <f>1/(G98+(F98/D98))</f>
+        <v>3.9469055346563069</v>
+      </c>
+      <c r="F98">
+        <f>A98/B98</f>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <f t="shared" si="5"/>
+        <v>1442</v>
+      </c>
+      <c r="B99" s="5">
+        <f>2+C99*(C99*($J$4+2)+C99*($J$4+2)+(C99*LOG10(C99))+3*$J$6+$J$5)+(1+C99*(2+$J$4))+(1+C99*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C99" s="4">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4">
+        <v>10</v>
+      </c>
+      <c r="E99" s="6">
+        <f t="shared" si="6"/>
+        <v>5.5665024630541868</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="7"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <f t="shared" si="5"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B100" s="5">
+        <f>2+C100*(C100*($J$4+2)+C100*($J$4+2)+(C100*LOG10(C100))+3*$J$6+$J$5)+(1+C100*(2+$J$4))+(1+C100*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C100" s="4">
+        <v>50</v>
+      </c>
+      <c r="D100" s="4">
+        <v>10</v>
+      </c>
+      <c r="E100" s="6">
+        <f t="shared" si="6"/>
+        <v>8.6439664713346431</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="7"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="8"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <f t="shared" si="5"/>
+        <v>141402</v>
+      </c>
+      <c r="B101" s="5">
+        <f>2+C101*(C101*($J$4+2)+C101*($J$4+2)+(C101*LOG10(C101))+3*$J$6+$J$5)+(1+C101*(2+$J$4))+(1+C101*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C101" s="4">
+        <v>100</v>
+      </c>
+      <c r="D101" s="4">
+        <v>10</v>
+      </c>
+      <c r="E101" s="6">
+        <f t="shared" si="6"/>
+        <v>9.2851655577401289</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="7"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="8"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <f t="shared" si="5"/>
+        <v>15014002</v>
+      </c>
+      <c r="B102" s="5">
+        <f>2+C102*(C102*($J$4+2)+C102*($J$4+2)+(C102*LOG10(C102))+3*$J$6+$J$5)+(1+C102*(2+$J$4))+(1+C102*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D102" s="4">
+        <v>10</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" si="6"/>
+        <v>9.92851952154464</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="7"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="8"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <f t="shared" si="5"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B103" s="5">
+        <f>2+C103*(C103*($J$4+2)+C103*($J$4+2)+(C103*LOG10(C103))+3*$J$6+$J$5)+(1+C103*(2+$J$4))+(1+C103*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C103" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D103" s="4">
+        <v>10</v>
+      </c>
+      <c r="E103" s="6">
+        <f t="shared" si="6"/>
+        <v>9.9932545251867708</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="7"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="8"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <f t="shared" si="5"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B104" s="5">
+        <f>2+C104*(C104*($J$4+2)+C104*($J$4+2)+(C104*LOG10(C104))+3*$J$6+$J$5)+(1+C104*(2+$J$4))+(1+C104*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C104" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D104" s="4">
+        <v>10</v>
+      </c>
+      <c r="E104" s="6">
+        <f t="shared" si="6"/>
+        <v>9.9987066715031165</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="7"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="8"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B105" s="5">
+        <f>2+C105*(C105*($J$4+2)+C105*($J$4+2)+(C105*LOG10(C105))+3*$J$6+$J$5)+(1+C105*(2+$J$4))+(1+C105*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4">
+        <v>11</v>
+      </c>
+      <c r="E105" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7368421052631577</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="7"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="8"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <f t="shared" si="5"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B106" s="5">
+        <f>2+C106*(C106*($J$4+2)+C106*($J$4+2)+(C106*LOG10(C106))+3*$J$6+$J$5)+(1+C106*(2+$J$4))+(1+C106*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C106" s="4">
+        <v>5</v>
+      </c>
+      <c r="D106" s="4">
+        <v>11</v>
+      </c>
+      <c r="E106" s="6">
+        <f t="shared" si="6"/>
+        <v>4.0679964566051137</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="7"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="8"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <f t="shared" si="5"/>
+        <v>1442</v>
+      </c>
+      <c r="B107" s="5">
+        <f>2+C107*(C107*($J$4+2)+C107*($J$4+2)+(C107*LOG10(C107))+3*$J$6+$J$5)+(1+C107*(2+$J$4))+(1+C107*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C107" s="4">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4">
+        <v>11</v>
+      </c>
+      <c r="E107" s="6">
+        <f t="shared" si="6"/>
+        <v>5.8356807511737072</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="7"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="8"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <f t="shared" si="5"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B108" s="5">
+        <f>2+C108*(C108*($J$4+2)+C108*($J$4+2)+(C108*LOG10(C108))+3*$J$6+$J$5)+(1+C108*(2+$J$4))+(1+C108*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C108" s="4">
+        <v>50</v>
+      </c>
+      <c r="D108" s="4">
+        <v>11</v>
+      </c>
+      <c r="E108" s="6">
+        <f t="shared" si="6"/>
+        <v>9.3672267458242331</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="7"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <f t="shared" si="5"/>
+        <v>141402</v>
+      </c>
+      <c r="B109" s="5">
+        <f>2+C109*(C109*($J$4+2)+C109*($J$4+2)+(C109*LOG10(C109))+3*$J$6+$J$5)+(1+C109*(2+$J$4))+(1+C109*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C109" s="4">
+        <v>100</v>
+      </c>
+      <c r="D109" s="4">
+        <v>11</v>
+      </c>
+      <c r="E109" s="6">
+        <f t="shared" si="6"/>
+        <v>10.133198124297577</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="7"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="8"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <f t="shared" si="5"/>
+        <v>15014002</v>
+      </c>
+      <c r="B110" s="5">
+        <f>2+C110*(C110*($J$4+2)+C110*($J$4+2)+(C110*LOG10(C110))+3*$J$6+$J$5)+(1+C110*(2+$J$4))+(1+C110*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D110" s="4">
+        <v>11</v>
+      </c>
+      <c r="E110" s="6">
+        <f t="shared" si="6"/>
+        <v>10.912704303422988</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="7"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="8"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <f t="shared" si="5"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B111" s="5">
+        <f>2+C111*(C111*($J$4+2)+C111*($J$4+2)+(C111*LOG10(C111))+3*$J$6+$J$5)+(1+C111*(2+$J$4))+(1+C111*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C111" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D111" s="4">
+        <v>11</v>
+      </c>
+      <c r="E111" s="6">
+        <f t="shared" si="6"/>
+        <v>10.991756148658181</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="7"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="8"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <f t="shared" si="5"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B112" s="5">
+        <f>2+C112*(C112*($J$4+2)+C112*($J$4+2)+(C112*LOG10(C112))+3*$J$6+$J$5)+(1+C112*(2+$J$4))+(1+C112*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C112" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D112" s="4">
+        <v>11</v>
+      </c>
+      <c r="E112" s="6">
+        <f t="shared" si="6"/>
+        <v>10.99841928788581</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="7"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="8"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B113" s="5">
+        <f>2+C113*(C113*($J$4+2)+C113*($J$4+2)+(C113*LOG10(C113))+3*$J$6+$J$5)+(1+C113*(2+$J$4))+(1+C113*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1</v>
+      </c>
+      <c r="D113" s="4">
+        <v>12</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7475728155339807</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="7"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="8"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <f t="shared" si="5"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B114" s="5">
+        <f>2+C114*(C114*($J$4+2)+C114*($J$4+2)+(C114*LOG10(C114))+3*$J$6+$J$5)+(1+C114*(2+$J$4))+(1+C114*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C114" s="4">
+        <v>5</v>
+      </c>
+      <c r="D114" s="4">
+        <v>12</v>
+      </c>
+      <c r="E114" s="6">
+        <f t="shared" si="6"/>
+        <v>4.174730270583721</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="7"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="8"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <f t="shared" si="5"/>
+        <v>1442</v>
+      </c>
+      <c r="B115" s="5">
+        <f>2+C115*(C115*($J$4+2)+C115*($J$4+2)+(C115*LOG10(C115))+3*$J$6+$J$5)+(1+C115*(2+$J$4))+(1+C115*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C115" s="4">
+        <v>10</v>
+      </c>
+      <c r="D115" s="4">
+        <v>12</v>
+      </c>
+      <c r="E115" s="6">
+        <f t="shared" si="6"/>
+        <v>6.0807174887892375</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="7"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="8"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <f t="shared" si="5"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B116" s="5">
+        <f>2+C116*(C116*($J$4+2)+C116*($J$4+2)+(C116*LOG10(C116))+3*$J$6+$J$5)+(1+C116*(2+$J$4))+(1+C116*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C116" s="4">
+        <v>50</v>
+      </c>
+      <c r="D116" s="4">
+        <v>12</v>
+      </c>
+      <c r="E116" s="6">
+        <f t="shared" si="6"/>
+        <v>10.069329792063201</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="7"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="8"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <f t="shared" si="5"/>
+        <v>141402</v>
+      </c>
+      <c r="B117" s="5">
+        <f>2+C117*(C117*($J$4+2)+C117*($J$4+2)+(C117*LOG10(C117))+3*$J$6+$J$5)+(1+C117*(2+$J$4))+(1+C117*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C117" s="4">
+        <v>100</v>
+      </c>
+      <c r="D117" s="4">
+        <v>12</v>
+      </c>
+      <c r="E117" s="6">
+        <f t="shared" si="6"/>
+        <v>10.967970161879489</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="7"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="8"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <f t="shared" si="5"/>
+        <v>15014002</v>
+      </c>
+      <c r="B118" s="5">
+        <f>2+C118*(C118*($J$4+2)+C118*($J$4+2)+(C118*LOG10(C118))+3*$J$6+$J$5)+(1+C118*(2+$J$4))+(1+C118*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D118" s="4">
+        <v>12</v>
+      </c>
+      <c r="E118" s="6">
+        <f t="shared" si="6"/>
+        <v>11.895328231334473</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="7"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="8"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <f t="shared" si="5"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B119" s="5">
+        <f>2+C119*(C119*($J$4+2)+C119*($J$4+2)+(C119*LOG10(C119))+3*$J$6+$J$5)+(1+C119*(2+$J$4))+(1+C119*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C119" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D119" s="4">
+        <v>12</v>
+      </c>
+      <c r="E119" s="6">
+        <f t="shared" si="6"/>
+        <v>11.990108119727912</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="7"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="8"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <f t="shared" si="5"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B120" s="5">
+        <f>2+C120*(C120*($J$4+2)+C120*($J$4+2)+(C120*LOG10(C120))+3*$J$6+$J$5)+(1+C120*(2+$J$4))+(1+C120*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C120" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D120" s="4">
+        <v>12</v>
+      </c>
+      <c r="E120" s="6">
+        <f t="shared" si="6"/>
+        <v>11.99810317272059</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="7"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="8"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B121" s="5">
+        <f>2+C121*(C121*($J$4+2)+C121*($J$4+2)+(C121*LOG10(C121))+3*$J$6+$J$5)+(1+C121*(2+$J$4))+(1+C121*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4">
+        <v>13</v>
+      </c>
+      <c r="E121" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7567567567567568</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="7"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="8"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <f t="shared" si="5"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B122" s="5">
+        <f>2+C122*(C122*($J$4+2)+C122*($J$4+2)+(C122*LOG10(C122))+3*$J$6+$J$5)+(1+C122*(2+$J$4))+(1+C122*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C122" s="4">
+        <v>5</v>
+      </c>
+      <c r="D122" s="4">
+        <v>13</v>
+      </c>
+      <c r="E122" s="6">
+        <f t="shared" si="6"/>
+        <v>4.2695174473736692</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="7"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="8"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <f t="shared" si="5"/>
+        <v>1442</v>
+      </c>
+      <c r="B123" s="5">
+        <f>2+C123*(C123*($J$4+2)+C123*($J$4+2)+(C123*LOG10(C123))+3*$J$6+$J$5)+(1+C123*(2+$J$4))+(1+C123*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C123" s="4">
+        <v>10</v>
+      </c>
+      <c r="D123" s="4">
+        <v>13</v>
+      </c>
+      <c r="E123" s="6">
+        <f t="shared" si="6"/>
+        <v>6.3047210300429173</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="7"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="8"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <f t="shared" si="5"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B124" s="5">
+        <f>2+C124*(C124*($J$4+2)+C124*($J$4+2)+(C124*LOG10(C124))+3*$J$6+$J$5)+(1+C124*(2+$J$4))+(1+C124*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C124" s="4">
+        <v>50</v>
+      </c>
+      <c r="D124" s="4">
+        <v>13</v>
+      </c>
+      <c r="E124" s="6">
+        <f t="shared" si="6"/>
+        <v>10.75119058263107</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="7"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="8"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <f t="shared" si="5"/>
+        <v>141402</v>
+      </c>
+      <c r="B125" s="5">
+        <f>2+C125*(C125*($J$4+2)+C125*($J$4+2)+(C125*LOG10(C125))+3*$J$6+$J$5)+(1+C125*(2+$J$4))+(1+C125*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C125" s="4">
+        <v>100</v>
+      </c>
+      <c r="D125" s="4">
+        <v>13</v>
+      </c>
+      <c r="E125" s="6">
+        <f t="shared" si="6"/>
+        <v>11.789790286273856</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="7"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="8"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1">
+      <c r="A126">
+        <f t="shared" si="5"/>
+        <v>15014002</v>
+      </c>
+      <c r="B126" s="5">
+        <f>2+C126*(C126*($J$4+2)+C126*($J$4+2)+(C126*LOG10(C126))+3*$J$6+$J$5)+(1+C126*(2+$J$4))+(1+C126*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D126" s="4">
+        <v>13</v>
+      </c>
+      <c r="E126" s="6">
+        <f t="shared" si="6"/>
+        <v>12.876395015458527</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="7"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="8"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1">
+      <c r="A127">
+        <f t="shared" si="5"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B127" s="5">
+        <f>2+C127*(C127*($J$4+2)+C127*($J$4+2)+(C127*LOG10(C127))+3*$J$6+$J$5)+(1+C127*(2+$J$4))+(1+C127*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C127" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D127" s="4">
+        <v>13</v>
+      </c>
+      <c r="E127" s="6">
+        <f t="shared" si="6"/>
+        <v>12.988310472037618</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="7"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="8"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" customHeight="1">
+      <c r="A128">
+        <f t="shared" si="5"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B128" s="5">
+        <f>2+C128*(C128*($J$4+2)+C128*($J$4+2)+(C128*LOG10(C128))+3*$J$6+$J$5)+(1+C128*(2+$J$4))+(1+C128*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C128" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D128" s="4">
+        <v>13</v>
+      </c>
+      <c r="E128" s="6">
+        <f t="shared" si="6"/>
+        <v>12.997758327246045</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="7"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="8"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15" customHeight="1">
+      <c r="A129">
+        <f>2+C129*(C129*($J$4+2)+C129*($J$4+2)+(C129*LOG10(C129))+3*$J$6+$J$5)</f>
+        <v>28</v>
+      </c>
+      <c r="B129" s="5">
+        <f>2+C129*(C129*($J$4+2)+C129*($J$4+2)+(C129*LOG10(C129))+3*$J$6+$J$5)+(1+C129*(2+$J$4))+(1+C129*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4">
+        <v>14</v>
+      </c>
+      <c r="E129" s="4">
+        <f>1/(G129+(F129/D129))</f>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="F129">
+        <f>A129/B129</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G129">
+        <f>1-F129</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1">
+      <c r="A130">
+        <f t="shared" ref="A130:A193" si="9">2+C130*(C130*($J$4+2)+C130*($J$4+2)+(C130*LOG10(C130))+3*$J$6+$J$5)</f>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B130" s="5">
+        <f>2+C130*(C130*($J$4+2)+C130*($J$4+2)+(C130*LOG10(C130))+3*$J$6+$J$5)+(1+C130*(2+$J$4))+(1+C130*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C130" s="4">
+        <v>5</v>
+      </c>
+      <c r="D130" s="4">
+        <v>14</v>
+      </c>
+      <c r="E130" s="6">
+        <f>1/(G130+(F130/D130))</f>
+        <v>4.3542574515899197</v>
+      </c>
+      <c r="F130">
+        <f>A130/B130</f>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G130">
+        <f t="shared" ref="G130:G193" si="10">1-F130</f>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15" customHeight="1">
+      <c r="A131">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B131" s="5">
+        <f>2+C131*(C131*($J$4+2)+C131*($J$4+2)+(C131*LOG10(C131))+3*$J$6+$J$5)+(1+C131*(2+$J$4))+(1+C131*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C131" s="4">
+        <v>10</v>
+      </c>
+      <c r="D131" s="4">
+        <v>14</v>
+      </c>
+      <c r="E131" s="6">
+        <f t="shared" ref="E131:E194" si="11">1/(G131+(F131/D131))</f>
+        <v>6.5102880658436204</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="12">A131/B131</f>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" customHeight="1">
+      <c r="A132">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B132" s="5">
+        <f>2+C132*(C132*($J$4+2)+C132*($J$4+2)+(C132*LOG10(C132))+3*$J$6+$J$5)+(1+C132*(2+$J$4))+(1+C132*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C132" s="4">
+        <v>50</v>
+      </c>
+      <c r="D132" s="4">
+        <v>14</v>
+      </c>
+      <c r="E132" s="6">
+        <f t="shared" si="11"/>
+        <v>11.413672080895772</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1">
+      <c r="A133">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B133" s="5">
+        <f>2+C133*(C133*($J$4+2)+C133*($J$4+2)+(C133*LOG10(C133))+3*$J$6+$J$5)+(1+C133*(2+$J$4))+(1+C133*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C133" s="4">
+        <v>100</v>
+      </c>
+      <c r="D133" s="4">
+        <v>14</v>
+      </c>
+      <c r="E133" s="6">
+        <f t="shared" si="11"/>
+        <v>12.598957610327981</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1">
+      <c r="A134">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B134" s="5">
+        <f>2+C134*(C134*($J$4+2)+C134*($J$4+2)+(C134*LOG10(C134))+3*$J$6+$J$5)+(1+C134*(2+$J$4))+(1+C134*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D134" s="4">
+        <v>14</v>
+      </c>
+      <c r="E134" s="6">
+        <f t="shared" si="11"/>
+        <v>13.855908354225004</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1">
+      <c r="A135">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B135" s="5">
+        <f>2+C135*(C135*($J$4+2)+C135*($J$4+2)+(C135*LOG10(C135))+3*$J$6+$J$5)+(1+C135*(2+$J$4))+(1+C135*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C135" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D135" s="4">
+        <v>14</v>
+      </c>
+      <c r="E135" s="6">
+        <f t="shared" si="11"/>
+        <v>13.986363239218864</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1">
+      <c r="A136">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B136" s="5">
+        <f>2+C136*(C136*($J$4+2)+C136*($J$4+2)+(C136*LOG10(C136))+3*$J$6+$J$5)+(1+C136*(2+$J$4))+(1+C136*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C136" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D136" s="4">
+        <v>14</v>
+      </c>
+      <c r="E136" s="6">
+        <f t="shared" si="11"/>
+        <v>13.997384752700697</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1">
+      <c r="A137">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B137" s="5">
+        <f>2+C137*(C137*($J$4+2)+C137*($J$4+2)+(C137*LOG10(C137))+3*$J$6+$J$5)+(1+C137*(2+$J$4))+(1+C137*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4">
+        <v>15</v>
+      </c>
+      <c r="E137" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7716535433070868</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1">
+      <c r="A138">
+        <f t="shared" si="9"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B138" s="5">
+        <f>2+C138*(C138*($J$4+2)+C138*($J$4+2)+(C138*LOG10(C138))+3*$J$6+$J$5)+(1+C138*(2+$J$4))+(1+C138*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C138" s="4">
+        <v>5</v>
+      </c>
+      <c r="D138" s="4">
+        <v>15</v>
+      </c>
+      <c r="E138" s="6">
+        <f t="shared" si="11"/>
+        <v>4.4304673392134184</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="10"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1">
+      <c r="A139">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B139" s="5">
+        <f>2+C139*(C139*($J$4+2)+C139*($J$4+2)+(C139*LOG10(C139))+3*$J$6+$J$5)+(1+C139*(2+$J$4))+(1+C139*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C139" s="4">
+        <v>10</v>
+      </c>
+      <c r="D139" s="4">
+        <v>15</v>
+      </c>
+      <c r="E139" s="6">
+        <f t="shared" si="11"/>
+        <v>6.6996047430830021</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="12"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1">
+      <c r="A140">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B140" s="5">
+        <f>2+C140*(C140*($J$4+2)+C140*($J$4+2)+(C140*LOG10(C140))+3*$J$6+$J$5)+(1+C140*(2+$J$4))+(1+C140*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C140" s="4">
+        <v>50</v>
+      </c>
+      <c r="D140" s="4">
+        <v>15</v>
+      </c>
+      <c r="E140" s="6">
+        <f t="shared" si="11"/>
+        <v>12.057588884644174</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1">
+      <c r="A141">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B141" s="5">
+        <f>2+C141*(C141*($J$4+2)+C141*($J$4+2)+(C141*LOG10(C141))+3*$J$6+$J$5)+(1+C141*(2+$J$4))+(1+C141*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C141" s="4">
+        <v>100</v>
+      </c>
+      <c r="D141" s="4">
+        <v>15</v>
+      </c>
+      <c r="E141" s="6">
+        <f t="shared" si="11"/>
+        <v>13.395762106924138</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" customHeight="1">
+      <c r="A142">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B142" s="5">
+        <f>2+C142*(C142*($J$4+2)+C142*($J$4+2)+(C142*LOG10(C142))+3*$J$6+$J$5)+(1+C142*(2+$J$4))+(1+C142*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D142" s="4">
+        <v>15</v>
+      </c>
+      <c r="E142" s="6">
+        <f t="shared" si="11"/>
+        <v>14.833871934360651</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" customHeight="1">
+      <c r="A143">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B143" s="5">
+        <f>2+C143*(C143*($J$4+2)+C143*($J$4+2)+(C143*LOG10(C143))+3*$J$6+$J$5)+(1+C143*(2+$J$4))+(1+C143*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C143" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D143" s="4">
+        <v>15</v>
+      </c>
+      <c r="E143" s="6">
+        <f t="shared" si="11"/>
+        <v>14.984266454893143</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" customHeight="1">
+      <c r="A144">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B144" s="5">
+        <f>2+C144*(C144*($J$4+2)+C144*($J$4+2)+(C144*LOG10(C144))+3*$J$6+$J$5)+(1+C144*(2+$J$4))+(1+C144*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C144" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D144" s="4">
+        <v>15</v>
+      </c>
+      <c r="E144" s="6">
+        <f t="shared" si="11"/>
+        <v>14.996982450322996</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15" customHeight="1">
+      <c r="A145">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B145" s="5">
+        <f>2+C145*(C145*($J$4+2)+C145*($J$4+2)+(C145*LOG10(C145))+3*$J$6+$J$5)+(1+C145*(2+$J$4))+(1+C145*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+      <c r="D145" s="4">
+        <v>16</v>
+      </c>
+      <c r="E145" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15" customHeight="1">
+      <c r="A146">
+        <f t="shared" si="9"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B146" s="5">
+        <f>2+C146*(C146*($J$4+2)+C146*($J$4+2)+(C146*LOG10(C146))+3*$J$6+$J$5)+(1+C146*(2+$J$4))+(1+C146*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C146" s="4">
+        <v>5</v>
+      </c>
+      <c r="D146" s="4">
+        <v>16</v>
+      </c>
+      <c r="E146" s="6">
+        <f t="shared" si="11"/>
+        <v>4.4993733813185051</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="10"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1">
+      <c r="A147">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B147" s="5">
+        <f>2+C147*(C147*($J$4+2)+C147*($J$4+2)+(C147*LOG10(C147))+3*$J$6+$J$5)+(1+C147*(2+$J$4))+(1+C147*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C147" s="4">
+        <v>10</v>
+      </c>
+      <c r="D147" s="4">
+        <v>16</v>
+      </c>
+      <c r="E147" s="6">
+        <f t="shared" si="11"/>
+        <v>6.8745247148288966</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="12"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1">
+      <c r="A148">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B148" s="5">
+        <f>2+C148*(C148*($J$4+2)+C148*($J$4+2)+(C148*LOG10(C148))+3*$J$6+$J$5)+(1+C148*(2+$J$4))+(1+C148*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C148" s="4">
+        <v>50</v>
+      </c>
+      <c r="D148" s="4">
+        <v>16</v>
+      </c>
+      <c r="E148" s="6">
+        <f t="shared" si="11"/>
+        <v>12.683710567629268</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1">
+      <c r="A149">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B149" s="5">
+        <f>2+C149*(C149*($J$4+2)+C149*($J$4+2)+(C149*LOG10(C149))+3*$J$6+$J$5)+(1+C149*(2+$J$4))+(1+C149*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C149" s="4">
+        <v>100</v>
+      </c>
+      <c r="D149" s="4">
+        <v>16</v>
+      </c>
+      <c r="E149" s="6">
+        <f t="shared" si="11"/>
+        <v>14.180484955444243</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1">
+      <c r="A150">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B150" s="5">
+        <f>2+C150*(C150*($J$4+2)+C150*($J$4+2)+(C150*LOG10(C150))+3*$J$6+$J$5)+(1+C150*(2+$J$4))+(1+C150*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D150" s="4">
+        <v>16</v>
+      </c>
+      <c r="E150" s="6">
+        <f t="shared" si="11"/>
+        <v>15.810289430935363</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1">
+      <c r="A151">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B151" s="5">
+        <f>2+C151*(C151*($J$4+2)+C151*($J$4+2)+(C151*LOG10(C151))+3*$J$6+$J$5)+(1+C151*(2+$J$4))+(1+C151*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C151" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D151" s="4">
+        <v>16</v>
+      </c>
+      <c r="E151" s="6">
+        <f t="shared" si="11"/>
+        <v>15.982020152671875</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1">
+      <c r="A152">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B152" s="5">
+        <f>2+C152*(C152*($J$4+2)+C152*($J$4+2)+(C152*LOG10(C152))+3*$J$6+$J$5)+(1+C152*(2+$J$4))+(1+C152*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C152" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D152" s="4">
+        <v>16</v>
+      </c>
+      <c r="E152" s="6">
+        <f t="shared" si="11"/>
+        <v>15.996551421351315</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1">
+      <c r="A153">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B153" s="5">
+        <f>2+C153*(C153*($J$4+2)+C153*($J$4+2)+(C153*LOG10(C153))+3*$J$6+$J$5)+(1+C153*(2+$J$4))+(1+C153*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1</v>
+      </c>
+      <c r="D153" s="4">
+        <v>17</v>
+      </c>
+      <c r="E153" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7832167832167831</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1">
+      <c r="A154">
+        <f t="shared" si="9"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B154" s="5">
+        <f>2+C154*(C154*($J$4+2)+C154*($J$4+2)+(C154*LOG10(C154))+3*$J$6+$J$5)+(1+C154*(2+$J$4))+(1+C154*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C154" s="4">
+        <v>5</v>
+      </c>
+      <c r="D154" s="4">
+        <v>17</v>
+      </c>
+      <c r="E154" s="6">
+        <f t="shared" si="11"/>
+        <v>4.5619775491684367</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="10"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15" customHeight="1">
+      <c r="A155">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B155" s="5">
+        <f>2+C155*(C155*($J$4+2)+C155*($J$4+2)+(C155*LOG10(C155))+3*$J$6+$J$5)+(1+C155*(2+$J$4))+(1+C155*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C155" s="4">
+        <v>10</v>
+      </c>
+      <c r="D155" s="4">
+        <v>17</v>
+      </c>
+      <c r="E155" s="6">
+        <f t="shared" si="11"/>
+        <v>7.0366300366300356</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="12"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15" customHeight="1">
+      <c r="A156">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B156" s="5">
+        <f>2+C156*(C156*($J$4+2)+C156*($J$4+2)+(C156*LOG10(C156))+3*$J$6+$J$5)+(1+C156*(2+$J$4))+(1+C156*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C156" s="4">
+        <v>50</v>
+      </c>
+      <c r="D156" s="4">
+        <v>17</v>
+      </c>
+      <c r="E156" s="6">
+        <f t="shared" si="11"/>
+        <v>13.292764747854843</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" customHeight="1">
+      <c r="A157">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B157" s="5">
+        <f>2+C157*(C157*($J$4+2)+C157*($J$4+2)+(C157*LOG10(C157))+3*$J$6+$J$5)+(1+C157*(2+$J$4))+(1+C157*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C157" s="4">
+        <v>100</v>
+      </c>
+      <c r="D157" s="4">
+        <v>17</v>
+      </c>
+      <c r="E157" s="6">
+        <f t="shared" si="11"/>
+        <v>14.95339887259315</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" customHeight="1">
+      <c r="A158">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B158" s="5">
+        <f>2+C158*(C158*($J$4+2)+C158*($J$4+2)+(C158*LOG10(C158))+3*$J$6+$J$5)+(1+C158*(2+$J$4))+(1+C158*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D158" s="4">
+        <v>17</v>
+      </c>
+      <c r="E158" s="6">
+        <f t="shared" si="11"/>
+        <v>16.785164507408222</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15" customHeight="1">
+      <c r="A159">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B159" s="5">
+        <f>2+C159*(C159*($J$4+2)+C159*($J$4+2)+(C159*LOG10(C159))+3*$J$6+$J$5)+(1+C159*(2+$J$4))+(1+C159*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C159" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D159" s="4">
+        <v>17</v>
+      </c>
+      <c r="E159" s="6">
+        <f t="shared" si="11"/>
+        <v>16.979624366156397</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1">
+      <c r="A160">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B160" s="5">
+        <f>2+C160*(C160*($J$4+2)+C160*($J$4+2)+(C160*LOG10(C160))+3*$J$6+$J$5)+(1+C160*(2+$J$4))+(1+C160*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C160" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D160" s="4">
+        <v>17</v>
+      </c>
+      <c r="E160" s="6">
+        <f t="shared" si="11"/>
+        <v>16.996091667023965</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1">
+      <c r="A161">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B161" s="5">
+        <f>2+C161*(C161*($J$4+2)+C161*($J$4+2)+(C161*LOG10(C161))+3*$J$6+$J$5)+(1+C161*(2+$J$4))+(1+C161*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1</v>
+      </c>
+      <c r="D161" s="4">
+        <v>18</v>
+      </c>
+      <c r="E161" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7880794701986755</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1">
+      <c r="A162">
+        <f t="shared" si="9"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B162" s="5">
+        <f>2+C162*(C162*($J$4+2)+C162*($J$4+2)+(C162*LOG10(C162))+3*$J$6+$J$5)+(1+C162*(2+$J$4))+(1+C162*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C162" s="4">
+        <v>5</v>
+      </c>
+      <c r="D162" s="4">
+        <v>18</v>
+      </c>
+      <c r="E162" s="6">
+        <f t="shared" si="11"/>
+        <v>4.6191065555858453</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="10"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1">
+      <c r="A163">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B163" s="5">
+        <f>2+C163*(C163*($J$4+2)+C163*($J$4+2)+(C163*LOG10(C163))+3*$J$6+$J$5)+(1+C163*(2+$J$4))+(1+C163*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C163" s="4">
+        <v>10</v>
+      </c>
+      <c r="D163" s="4">
+        <v>18</v>
+      </c>
+      <c r="E163" s="6">
+        <f t="shared" si="11"/>
+        <v>7.1872791519434616</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="12"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1">
+      <c r="A164">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B164" s="5">
+        <f>2+C164*(C164*($J$4+2)+C164*($J$4+2)+(C164*LOG10(C164))+3*$J$6+$J$5)+(1+C164*(2+$J$4))+(1+C164*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C164" s="4">
+        <v>50</v>
+      </c>
+      <c r="D164" s="4">
+        <v>18</v>
+      </c>
+      <c r="E164" s="6">
+        <f t="shared" si="11"/>
+        <v>13.885439908318142</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1">
+      <c r="A165">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B165" s="5">
+        <f>2+C165*(C165*($J$4+2)+C165*($J$4+2)+(C165*LOG10(C165))+3*$J$6+$J$5)+(1+C165*(2+$J$4))+(1+C165*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C165" s="4">
+        <v>100</v>
+      </c>
+      <c r="D165" s="4">
+        <v>18</v>
+      </c>
+      <c r="E165" s="6">
+        <f t="shared" si="11"/>
+        <v>15.714768428398269</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1">
+      <c r="A166">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B166" s="5">
+        <f>2+C166*(C166*($J$4+2)+C166*($J$4+2)+(C166*LOG10(C166))+3*$J$6+$J$5)+(1+C166*(2+$J$4))+(1+C166*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D166" s="4">
+        <v>18</v>
+      </c>
+      <c r="E166" s="6">
+        <f t="shared" si="11"/>
+        <v>17.758500815673312</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1">
+      <c r="A167">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B167" s="5">
+        <f>2+C167*(C167*($J$4+2)+C167*($J$4+2)+(C167*LOG10(C167))+3*$J$6+$J$5)+(1+C167*(2+$J$4))+(1+C167*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C167" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D167" s="4">
+        <v>18</v>
+      </c>
+      <c r="E167" s="6">
+        <f t="shared" si="11"/>
+        <v>17.977079128937994</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1">
+      <c r="A168">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B168" s="5">
+        <f>2+C168*(C168*($J$4+2)+C168*($J$4+2)+(C168*LOG10(C168))+3*$J$6+$J$5)+(1+C168*(2+$J$4))+(1+C168*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C168" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D168" s="4">
+        <v>18</v>
+      </c>
+      <c r="E168" s="6">
+        <f t="shared" si="11"/>
+        <v>17.995603188579178</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1">
+      <c r="A169">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B169" s="5">
+        <f>2+C169*(C169*($J$4+2)+C169*($J$4+2)+(C169*LOG10(C169))+3*$J$6+$J$5)+(1+C169*(2+$J$4))+(1+C169*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1</v>
+      </c>
+      <c r="D169" s="4">
+        <v>19</v>
+      </c>
+      <c r="E169" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7924528301886793</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1">
+      <c r="A170">
+        <f t="shared" si="9"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B170" s="5">
+        <f>2+C170*(C170*($J$4+2)+C170*($J$4+2)+(C170*LOG10(C170))+3*$J$6+$J$5)+(1+C170*(2+$J$4))+(1+C170*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C170" s="4">
+        <v>5</v>
+      </c>
+      <c r="D170" s="4">
+        <v>19</v>
+      </c>
+      <c r="E170" s="6">
+        <f t="shared" si="11"/>
+        <v>4.6714485683968894</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="10"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1">
+      <c r="A171">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B171" s="5">
+        <f>2+C171*(C171*($J$4+2)+C171*($J$4+2)+(C171*LOG10(C171))+3*$J$6+$J$5)+(1+C171*(2+$J$4))+(1+C171*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C171" s="4">
+        <v>10</v>
+      </c>
+      <c r="D171" s="4">
+        <v>19</v>
+      </c>
+      <c r="E171" s="6">
+        <f t="shared" si="11"/>
+        <v>7.3276450511945379</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="12"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1">
+      <c r="A172">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B172" s="5">
+        <f>2+C172*(C172*($J$4+2)+C172*($J$4+2)+(C172*LOG10(C172))+3*$J$6+$J$5)+(1+C172*(2+$J$4))+(1+C172*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C172" s="4">
+        <v>50</v>
+      </c>
+      <c r="D172" s="4">
+        <v>19</v>
+      </c>
+      <c r="E172" s="6">
+        <f t="shared" si="11"/>
+        <v>14.462387993201029</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1">
+      <c r="A173">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B173" s="5">
+        <f>2+C173*(C173*($J$4+2)+C173*($J$4+2)+(C173*LOG10(C173))+3*$J$6+$J$5)+(1+C173*(2+$J$4))+(1+C173*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C173" s="4">
+        <v>100</v>
+      </c>
+      <c r="D173" s="4">
+        <v>19</v>
+      </c>
+      <c r="E173" s="6">
+        <f t="shared" si="11"/>
+        <v>16.464850348154705</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1">
+      <c r="A174">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B174" s="5">
+        <f>2+C174*(C174*($J$4+2)+C174*($J$4+2)+(C174*LOG10(C174))+3*$J$6+$J$5)+(1+C174*(2+$J$4))+(1+C174*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D174" s="4">
+        <v>19</v>
+      </c>
+      <c r="E174" s="6">
+        <f t="shared" si="11"/>
+        <v>18.730301996105322</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1">
+      <c r="A175">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B175" s="5">
+        <f>2+C175*(C175*($J$4+2)+C175*($J$4+2)+(C175*LOG10(C175))+3*$J$6+$J$5)+(1+C175*(2+$J$4))+(1+C175*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C175" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D175" s="4">
+        <v>19</v>
+      </c>
+      <c r="E175" s="6">
+        <f t="shared" si="11"/>
+        <v>18.974384474597869</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1">
+      <c r="A176">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B176" s="5">
+        <f>2+C176*(C176*($J$4+2)+C176*($J$4+2)+(C176*LOG10(C176))+3*$J$6+$J$5)+(1+C176*(2+$J$4))+(1+C176*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C176" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D176" s="4">
+        <v>19</v>
+      </c>
+      <c r="E176" s="6">
+        <f t="shared" si="11"/>
+        <v>18.995085987255116</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1">
+      <c r="A177">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B177" s="5">
+        <f>2+C177*(C177*($J$4+2)+C177*($J$4+2)+(C177*LOG10(C177))+3*$J$6+$J$5)+(1+C177*(2+$J$4))+(1+C177*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1</v>
+      </c>
+      <c r="D177" s="4">
+        <v>20</v>
+      </c>
+      <c r="E177" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7964071856287427</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1">
+      <c r="A178">
+        <f t="shared" si="9"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B178" s="5">
+        <f>2+C178*(C178*($J$4+2)+C178*($J$4+2)+(C178*LOG10(C178))+3*$J$6+$J$5)+(1+C178*(2+$J$4))+(1+C178*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C178" s="4">
+        <v>5</v>
+      </c>
+      <c r="D178" s="4">
+        <v>20</v>
+      </c>
+      <c r="E178" s="6">
+        <f t="shared" si="11"/>
+        <v>4.7195810660310915</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="10"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1">
+      <c r="A179">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B179" s="5">
+        <f>2+C179*(C179*($J$4+2)+C179*($J$4+2)+(C179*LOG10(C179))+3*$J$6+$J$5)+(1+C179*(2+$J$4))+(1+C179*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C179" s="4">
+        <v>10</v>
+      </c>
+      <c r="D179" s="4">
+        <v>20</v>
+      </c>
+      <c r="E179" s="6">
+        <f t="shared" si="11"/>
+        <v>7.458745874587458</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="12"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1">
+      <c r="A180">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B180" s="5">
+        <f>2+C180*(C180*($J$4+2)+C180*($J$4+2)+(C180*LOG10(C180))+3*$J$6+$J$5)+(1+C180*(2+$J$4))+(1+C180*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C180" s="4">
+        <v>50</v>
+      </c>
+      <c r="D180" s="4">
+        <v>20</v>
+      </c>
+      <c r="E180" s="6">
+        <f t="shared" si="11"/>
+        <v>15.024226800091823</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1">
+      <c r="A181">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B181" s="5">
+        <f>2+C181*(C181*($J$4+2)+C181*($J$4+2)+(C181*LOG10(C181))+3*$J$6+$J$5)+(1+C181*(2+$J$4))+(1+C181*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C181" s="4">
+        <v>100</v>
+      </c>
+      <c r="D181" s="4">
+        <v>20</v>
+      </c>
+      <c r="E181" s="6">
+        <f t="shared" si="11"/>
+        <v>17.203893801039779</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1">
+      <c r="A182">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B182" s="5">
+        <f>2+C182*(C182*($J$4+2)+C182*($J$4+2)+(C182*LOG10(C182))+3*$J$6+$J$5)+(1+C182*(2+$J$4))+(1+C182*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D182" s="4">
+        <v>20</v>
+      </c>
+      <c r="E182" s="6">
+        <f t="shared" si="11"/>
+        <v>19.700571677604916</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1">
+      <c r="A183">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B183" s="5">
+        <f>2+C183*(C183*($J$4+2)+C183*($J$4+2)+(C183*LOG10(C183))+3*$J$6+$J$5)+(1+C183*(2+$J$4))+(1+C183*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C183" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D183" s="4">
+        <v>20</v>
+      </c>
+      <c r="E183" s="6">
+        <f t="shared" si="11"/>
+        <v>19.971540436707183</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1">
+      <c r="A184">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B184" s="5">
+        <f>2+C184*(C184*($J$4+2)+C184*($J$4+2)+(C184*LOG10(C184))+3*$J$6+$J$5)+(1+C184*(2+$J$4))+(1+C184*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C184" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D184" s="4">
+        <v>20</v>
+      </c>
+      <c r="E184" s="6">
+        <f t="shared" si="11"/>
+        <v>19.994540064289875</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1">
+      <c r="A185">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B185" s="5">
+        <f>2+C185*(C185*($J$4+2)+C185*($J$4+2)+(C185*LOG10(C185))+3*$J$6+$J$5)+(1+C185*(2+$J$4))+(1+C185*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C185" s="4">
+        <v>1</v>
+      </c>
+      <c r="D185" s="4">
+        <v>21</v>
+      </c>
+      <c r="E185" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1">
+      <c r="A186">
+        <f t="shared" si="9"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B186" s="5">
+        <f>2+C186*(C186*($J$4+2)+C186*($J$4+2)+(C186*LOG10(C186))+3*$J$6+$J$5)+(1+C186*(2+$J$4))+(1+C186*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C186" s="4">
+        <v>5</v>
+      </c>
+      <c r="D186" s="4">
+        <v>21</v>
+      </c>
+      <c r="E186" s="6">
+        <f t="shared" si="11"/>
+        <v>4.7639922322106658</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="10"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15" customHeight="1">
+      <c r="A187">
+        <f t="shared" si="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B187" s="5">
+        <f>2+C187*(C187*($J$4+2)+C187*($J$4+2)+(C187*LOG10(C187))+3*$J$6+$J$5)+(1+C187*(2+$J$4))+(1+C187*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C187" s="4">
+        <v>10</v>
+      </c>
+      <c r="D187" s="4">
+        <v>21</v>
+      </c>
+      <c r="E187" s="6">
+        <f t="shared" si="11"/>
+        <v>7.5814696485622992</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="12"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="10"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15" customHeight="1">
+      <c r="A188">
+        <f t="shared" si="9"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B188" s="5">
+        <f>2+C188*(C188*($J$4+2)+C188*($J$4+2)+(C188*LOG10(C188))+3*$J$6+$J$5)+(1+C188*(2+$J$4))+(1+C188*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C188" s="4">
+        <v>50</v>
+      </c>
+      <c r="D188" s="4">
+        <v>21</v>
+      </c>
+      <c r="E188" s="6">
+        <f t="shared" si="11"/>
+        <v>15.571542186691731</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="12"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="10"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15" customHeight="1">
+      <c r="A189">
+        <f t="shared" si="9"/>
+        <v>141402</v>
+      </c>
+      <c r="B189" s="5">
+        <f>2+C189*(C189*($J$4+2)+C189*($J$4+2)+(C189*LOG10(C189))+3*$J$6+$J$5)+(1+C189*(2+$J$4))+(1+C189*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C189" s="4">
+        <v>100</v>
+      </c>
+      <c r="D189" s="4">
+        <v>21</v>
+      </c>
+      <c r="E189" s="6">
+        <f t="shared" si="11"/>
+        <v>17.932140676078586</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="12"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="10"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" customHeight="1">
+      <c r="A190">
+        <f t="shared" si="9"/>
+        <v>15014002</v>
+      </c>
+      <c r="B190" s="5">
+        <f>2+C190*(C190*($J$4+2)+C190*($J$4+2)+(C190*LOG10(C190))+3*$J$6+$J$5)+(1+C190*(2+$J$4))+(1+C190*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D190" s="4">
+        <v>21</v>
+      </c>
+      <c r="E190" s="6">
+        <f t="shared" si="11"/>
+        <v>20.669313477643929</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="12"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="10"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15" customHeight="1">
+      <c r="A191">
+        <f t="shared" si="9"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B191" s="5">
+        <f>2+C191*(C191*($J$4+2)+C191*($J$4+2)+(C191*LOG10(C191))+3*$J$6+$J$5)+(1+C191*(2+$J$4))+(1+C191*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C191" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D191" s="4">
+        <v>21</v>
+      </c>
+      <c r="E191" s="6">
+        <f t="shared" si="11"/>
+        <v>20.968547048827034</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="12"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="10"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1">
+      <c r="A192">
+        <f t="shared" si="9"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B192" s="5">
+        <f>2+C192*(C192*($J$4+2)+C192*($J$4+2)+(C192*LOG10(C192))+3*$J$6+$J$5)+(1+C192*(2+$J$4))+(1+C192*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C192" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D192" s="4">
+        <v>21</v>
+      </c>
+      <c r="E192" s="6">
+        <f t="shared" si="11"/>
+        <v>20.99396542092148</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="12"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="10"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1">
+      <c r="A193">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B193" s="5">
+        <f>2+C193*(C193*($J$4+2)+C193*($J$4+2)+(C193*LOG10(C193))+3*$J$6+$J$5)+(1+C193*(2+$J$4))+(1+C193*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4">
+        <v>22</v>
+      </c>
+      <c r="E193" s="6">
+        <f t="shared" si="11"/>
+        <v>1.8032786885245902</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1">
+      <c r="A194">
+        <f t="shared" ref="A194:A232" si="13">2+C194*(C194*($J$4+2)+C194*($J$4+2)+(C194*LOG10(C194))+3*$J$6+$J$5)</f>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B194" s="5">
+        <f>2+C194*(C194*($J$4+2)+C194*($J$4+2)+(C194*LOG10(C194))+3*$J$6+$J$5)+(1+C194*(2+$J$4))+(1+C194*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C194" s="4">
+        <v>5</v>
+      </c>
+      <c r="D194" s="4">
+        <v>22</v>
+      </c>
+      <c r="E194" s="6">
+        <f t="shared" si="11"/>
+        <v>4.8050975729827599</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="12"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G194">
+        <f t="shared" ref="G194:G232" si="14">1-F194</f>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1">
+      <c r="A195">
+        <f t="shared" si="13"/>
+        <v>1442</v>
+      </c>
+      <c r="B195" s="5">
+        <f>2+C195*(C195*($J$4+2)+C195*($J$4+2)+(C195*LOG10(C195))+3*$J$6+$J$5)+(1+C195*(2+$J$4))+(1+C195*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C195" s="4">
+        <v>10</v>
+      </c>
+      <c r="D195" s="4">
+        <v>22</v>
+      </c>
+      <c r="E195" s="6">
+        <f t="shared" ref="E195:E201" si="15">1/(G195+(F195/D195))</f>
+        <v>7.6965944272445803</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F232" si="16">A195/B195</f>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="14"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1">
+      <c r="A196">
+        <f t="shared" si="13"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B196" s="5">
+        <f>2+C196*(C196*($J$4+2)+C196*($J$4+2)+(C196*LOG10(C196))+3*$J$6+$J$5)+(1+C196*(2+$J$4))+(1+C196*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C196" s="4">
+        <v>50</v>
+      </c>
+      <c r="D196" s="4">
+        <v>22</v>
+      </c>
+      <c r="E196" s="6">
+        <f t="shared" si="15"/>
+        <v>16.104890108576168</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="16"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="14"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1">
+      <c r="A197">
+        <f t="shared" si="13"/>
+        <v>141402</v>
+      </c>
+      <c r="B197" s="5">
+        <f>2+C197*(C197*($J$4+2)+C197*($J$4+2)+(C197*LOG10(C197))+3*$J$6+$J$5)+(1+C197*(2+$J$4))+(1+C197*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C197" s="4">
+        <v>100</v>
+      </c>
+      <c r="D197" s="4">
+        <v>22</v>
+      </c>
+      <c r="E197" s="6">
+        <f t="shared" si="15"/>
+        <v>18.649825846102623</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="16"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="14"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1">
+      <c r="A198">
+        <f t="shared" si="13"/>
+        <v>15014002</v>
+      </c>
+      <c r="B198" s="5">
+        <f>2+C198*(C198*($J$4+2)+C198*($J$4+2)+(C198*LOG10(C198))+3*$J$6+$J$5)+(1+C198*(2+$J$4))+(1+C198*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C198" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D198" s="4">
+        <v>22</v>
+      </c>
+      <c r="E198" s="6">
+        <f t="shared" si="15"/>
+        <v>21.636531002310296</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="16"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="14"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1">
+      <c r="A199">
+        <f t="shared" si="13"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B199" s="5">
+        <f>2+C199*(C199*($J$4+2)+C199*($J$4+2)+(C199*LOG10(C199))+3*$J$6+$J$5)+(1+C199*(2+$J$4))+(1+C199*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C199" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D199" s="4">
+        <v>22</v>
+      </c>
+      <c r="E199" s="6">
+        <f t="shared" si="15"/>
+        <v>21.965404344508457</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="16"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="14"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1">
+      <c r="A200">
+        <f t="shared" si="13"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B200" s="5">
+        <f>2+C200*(C200*($J$4+2)+C200*($J$4+2)+(C200*LOG10(C200))+3*$J$6+$J$5)+(1+C200*(2+$J$4))+(1+C200*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C200" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D200" s="4">
+        <v>22</v>
+      </c>
+      <c r="E200" s="6">
+        <f t="shared" si="15"/>
+        <v>21.993362058387874</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="16"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="14"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1">
+      <c r="A201">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="B201" s="5">
+        <f>2+C201*(C201*($J$4+2)+C201*($J$4+2)+(C201*LOG10(C201))+3*$J$6+$J$5)+(1+C201*(2+$J$4))+(1+C201*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C201" s="4">
+        <v>1</v>
+      </c>
+      <c r="D201" s="4">
+        <v>23</v>
+      </c>
+      <c r="E201" s="6">
+        <f t="shared" si="15"/>
+        <v>1.8062827225130891</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="16"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="14"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1">
+      <c r="A202">
+        <f>2+C202*(C202*($J$4+2)+C202*($J$4+2)+(C202*LOG10(C202))+3*$J$6+$J$5)</f>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B202" s="5">
+        <f>2+C202*(C202*($J$4+2)+C202*($J$4+2)+(C202*LOG10(C202))+3*$J$6+$J$5)+(1+C202*(2+$J$4))+(1+C202*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C202" s="4">
+        <v>5</v>
+      </c>
+      <c r="D202" s="4">
+        <v>23</v>
+      </c>
+      <c r="E202" s="6">
+        <f>1/(G202+(F202/D202))</f>
+        <v>4.8432529561479356</v>
+      </c>
+      <c r="F202">
+        <f>A202/B202</f>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="14"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1">
+      <c r="A203">
+        <f t="shared" ref="A203:A232" si="17">2+C203*(C203*($J$4+2)+C203*($J$4+2)+(C203*LOG10(C203))+3*$J$6+$J$5)</f>
+        <v>1442</v>
+      </c>
+      <c r="B203" s="5">
+        <f>2+C203*(C203*($J$4+2)+C203*($J$4+2)+(C203*LOG10(C203))+3*$J$6+$J$5)+(1+C203*(2+$J$4))+(1+C203*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C203" s="4">
+        <v>10</v>
+      </c>
+      <c r="D203" s="4">
+        <v>23</v>
+      </c>
+      <c r="E203" s="6">
+        <f t="shared" ref="E203:E232" si="18">1/(G203+(F203/D203))</f>
+        <v>7.804804804804804</v>
+      </c>
+      <c r="F203">
+        <f t="shared" ref="F203:F232" si="19">A203/B203</f>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="14"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1">
+      <c r="A204">
+        <f t="shared" si="17"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B204" s="5">
+        <f>2+C204*(C204*($J$4+2)+C204*($J$4+2)+(C204*LOG10(C204))+3*$J$6+$J$5)+(1+C204*(2+$J$4))+(1+C204*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C204" s="4">
+        <v>50</v>
+      </c>
+      <c r="D204" s="4">
+        <v>23</v>
+      </c>
+      <c r="E204" s="6">
+        <f t="shared" si="18"/>
+        <v>16.624798502910931</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="19"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="14"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1">
+      <c r="A205">
+        <f t="shared" si="17"/>
+        <v>141402</v>
+      </c>
+      <c r="B205" s="5">
+        <f>2+C205*(C205*($J$4+2)+C205*($J$4+2)+(C205*LOG10(C205))+3*$J$6+$J$5)+(1+C205*(2+$J$4))+(1+C205*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C205" s="4">
+        <v>100</v>
+      </c>
+      <c r="D205" s="4">
+        <v>23</v>
+      </c>
+      <c r="E205" s="6">
+        <f t="shared" si="18"/>
+        <v>19.357177420306598</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="19"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="14"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1">
+      <c r="A206">
+        <f t="shared" si="17"/>
+        <v>15014002</v>
+      </c>
+      <c r="B206" s="5">
+        <f>2+C206*(C206*($J$4+2)+C206*($J$4+2)+(C206*LOG10(C206))+3*$J$6+$J$5)+(1+C206*(2+$J$4))+(1+C206*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C206" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D206" s="4">
+        <v>23</v>
+      </c>
+      <c r="E206" s="6">
+        <f t="shared" si="18"/>
+        <v>22.602227846352825</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="19"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="14"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1">
+      <c r="A207">
+        <f t="shared" si="17"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B207" s="5">
+        <f>2+C207*(C207*($J$4+2)+C207*($J$4+2)+(C207*LOG10(C207))+3*$J$6+$J$5)+(1+C207*(2+$J$4))+(1+C207*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C207" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D207" s="4">
+        <v>23</v>
+      </c>
+      <c r="E207" s="6">
+        <f t="shared" si="18"/>
+        <v>22.962112357292455</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="19"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="14"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1">
+      <c r="A208">
+        <f t="shared" si="17"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B208" s="5">
+        <f>2+C208*(C208*($J$4+2)+C208*($J$4+2)+(C208*LOG10(C208))+3*$J$6+$J$5)+(1+C208*(2+$J$4))+(1+C208*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C208" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D208" s="4">
+        <v>23</v>
+      </c>
+      <c r="E208" s="6">
+        <f t="shared" si="18"/>
+        <v>22.992729977926942</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="19"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="14"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1">
+      <c r="A209">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="B209" s="5">
+        <f>2+C209*(C209*($J$4+2)+C209*($J$4+2)+(C209*LOG10(C209))+3*$J$6+$J$5)+(1+C209*(2+$J$4))+(1+C209*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C209" s="4">
+        <v>1</v>
+      </c>
+      <c r="D209" s="4">
+        <v>24</v>
+      </c>
+      <c r="E209" s="6">
+        <f t="shared" si="18"/>
+        <v>1.8090452261306531</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="19"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="14"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1">
+      <c r="A210">
+        <f t="shared" si="17"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B210" s="5">
+        <f>2+C210*(C210*($J$4+2)+C210*($J$4+2)+(C210*LOG10(C210))+3*$J$6+$J$5)+(1+C210*(2+$J$4))+(1+C210*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C210" s="4">
+        <v>5</v>
+      </c>
+      <c r="D210" s="4">
+        <v>24</v>
+      </c>
+      <c r="E210" s="6">
+        <f t="shared" si="18"/>
+        <v>4.8787649405802007</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="19"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="14"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1">
+      <c r="A211">
+        <f t="shared" si="17"/>
+        <v>1442</v>
+      </c>
+      <c r="B211" s="5">
+        <f>2+C211*(C211*($J$4+2)+C211*($J$4+2)+(C211*LOG10(C211))+3*$J$6+$J$5)+(1+C211*(2+$J$4))+(1+C211*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C211" s="4">
+        <v>10</v>
+      </c>
+      <c r="D211" s="4">
+        <v>24</v>
+      </c>
+      <c r="E211" s="6">
+        <f t="shared" si="18"/>
+        <v>7.9067055393585992</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="19"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="14"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1">
+      <c r="A212">
+        <f t="shared" si="17"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B212" s="5">
+        <f>2+C212*(C212*($J$4+2)+C212*($J$4+2)+(C212*LOG10(C212))+3*$J$6+$J$5)+(1+C212*(2+$J$4))+(1+C212*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C212" s="4">
+        <v>50</v>
+      </c>
+      <c r="D212" s="4">
+        <v>24</v>
+      </c>
+      <c r="E212" s="6">
+        <f t="shared" si="18"/>
+        <v>17.131769031540141</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="19"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="14"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1">
+      <c r="A213">
+        <f t="shared" si="17"/>
+        <v>141402</v>
+      </c>
+      <c r="B213" s="5">
+        <f>2+C213*(C213*($J$4+2)+C213*($J$4+2)+(C213*LOG10(C213))+3*$J$6+$J$5)+(1+C213*(2+$J$4))+(1+C213*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C213" s="4">
+        <v>100</v>
+      </c>
+      <c r="D213" s="4">
+        <v>24</v>
+      </c>
+      <c r="E213" s="6">
+        <f t="shared" si="18"/>
+        <v>20.054416985973898</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="19"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="14"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1">
+      <c r="A214">
+        <f t="shared" si="17"/>
+        <v>15014002</v>
+      </c>
+      <c r="B214" s="5">
+        <f>2+C214*(C214*($J$4+2)+C214*($J$4+2)+(C214*LOG10(C214))+3*$J$6+$J$5)+(1+C214*(2+$J$4))+(1+C214*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C214" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D214" s="4">
+        <v>24</v>
+      </c>
+      <c r="E214" s="6">
+        <f t="shared" si="18"/>
+        <v>23.566407593225708</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="19"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="14"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1">
+      <c r="A215">
+        <f t="shared" si="17"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B215" s="5">
+        <f>2+C215*(C215*($J$4+2)+C215*($J$4+2)+(C215*LOG10(C215))+3*$J$6+$J$5)+(1+C215*(2+$J$4))+(1+C215*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C215" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D215" s="4">
+        <v>24</v>
+      </c>
+      <c r="E215" s="6">
+        <f t="shared" si="18"/>
+        <v>23.958671120709973</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="19"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="14"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1">
+      <c r="A216">
+        <f t="shared" si="17"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B216" s="5">
+        <f>2+C216*(C216*($J$4+2)+C216*($J$4+2)+(C216*LOG10(C216))+3*$J$6+$J$5)+(1+C216*(2+$J$4))+(1+C216*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C216" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D216" s="4">
+        <v>24</v>
+      </c>
+      <c r="E216" s="6">
+        <f t="shared" si="18"/>
+        <v>23.992069180776486</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="19"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="14"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1">
+      <c r="A217">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="B217" s="5">
+        <f>2+C217*(C217*($J$4+2)+C217*($J$4+2)+(C217*LOG10(C217))+3*$J$6+$J$5)+(1+C217*(2+$J$4))+(1+C217*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C217" s="4">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4">
+        <v>25</v>
+      </c>
+      <c r="E217" s="6">
+        <f t="shared" si="18"/>
+        <v>1.8115942028985506</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="19"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="14"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1">
+      <c r="A218">
+        <f t="shared" si="17"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B218" s="5">
+        <f>2+C218*(C218*($J$4+2)+C218*($J$4+2)+(C218*LOG10(C218))+3*$J$6+$J$5)+(1+C218*(2+$J$4))+(1+C218*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C218" s="4">
+        <v>5</v>
+      </c>
+      <c r="D218" s="4">
+        <v>25</v>
+      </c>
+      <c r="E218" s="6">
+        <f t="shared" si="18"/>
+        <v>4.9118990305828003</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="19"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="14"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1">
+      <c r="A219">
+        <f t="shared" si="17"/>
+        <v>1442</v>
+      </c>
+      <c r="B219" s="5">
+        <f>2+C219*(C219*($J$4+2)+C219*($J$4+2)+(C219*LOG10(C219))+3*$J$6+$J$5)+(1+C219*(2+$J$4))+(1+C219*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C219" s="4">
+        <v>10</v>
+      </c>
+      <c r="D219" s="4">
+        <v>25</v>
+      </c>
+      <c r="E219" s="6">
+        <f t="shared" si="18"/>
+        <v>8.0028328611898001</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="19"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="14"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1">
+      <c r="A220">
+        <f t="shared" si="17"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B220" s="5">
+        <f>2+C220*(C220*($J$4+2)+C220*($J$4+2)+(C220*LOG10(C220))+3*$J$6+$J$5)+(1+C220*(2+$J$4))+(1+C220*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C220" s="4">
+        <v>50</v>
+      </c>
+      <c r="D220" s="4">
+        <v>25</v>
+      </c>
+      <c r="E220" s="6">
+        <f t="shared" si="18"/>
+        <v>17.626278695543739</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="19"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="14"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15" customHeight="1">
+      <c r="A221">
+        <f t="shared" si="17"/>
+        <v>141402</v>
+      </c>
+      <c r="B221" s="5">
+        <f>2+C221*(C221*($J$4+2)+C221*($J$4+2)+(C221*LOG10(C221))+3*$J$6+$J$5)+(1+C221*(2+$J$4))+(1+C221*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C221" s="4">
+        <v>100</v>
+      </c>
+      <c r="D221" s="4">
+        <v>25</v>
+      </c>
+      <c r="E221" s="6">
+        <f t="shared" si="18"/>
+        <v>20.741759839908763</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="19"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="14"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15" customHeight="1">
+      <c r="A222">
+        <f t="shared" si="17"/>
+        <v>15014002</v>
+      </c>
+      <c r="B222" s="5">
+        <f>2+C222*(C222*($J$4+2)+C222*($J$4+2)+(C222*LOG10(C222))+3*$J$6+$J$5)+(1+C222*(2+$J$4))+(1+C222*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C222" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D222" s="4">
+        <v>25</v>
+      </c>
+      <c r="E222" s="6">
+        <f t="shared" si="18"/>
+        <v>24.529073815132854</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="19"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="14"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15" customHeight="1">
+      <c r="A223">
+        <f t="shared" si="17"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B223" s="5">
+        <f>2+C223*(C223*($J$4+2)+C223*($J$4+2)+(C223*LOG10(C223))+3*$J$6+$J$5)+(1+C223*(2+$J$4))+(1+C223*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C223" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D223" s="4">
+        <v>25</v>
+      </c>
+      <c r="E223" s="6">
+        <f t="shared" si="18"/>
+        <v>24.955080668281923</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="19"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="14"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15" customHeight="1">
+      <c r="A224">
+        <f t="shared" si="17"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B224" s="5">
+        <f>2+C224*(C224*($J$4+2)+C224*($J$4+2)+(C224*LOG10(C224))+3*$J$6+$J$5)+(1+C224*(2+$J$4))+(1+C224*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C224" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D224" s="4">
+        <v>25</v>
+      </c>
+      <c r="E224" s="6">
+        <f t="shared" si="18"/>
+        <v>24.99137966817425</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="19"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="14"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15" customHeight="1">
+      <c r="A225">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="B225" s="5">
+        <f>2+C225*(C225*($J$4+2)+C225*($J$4+2)+(C225*LOG10(C225))+3*$J$6+$J$5)+(1+C225*(2+$J$4))+(1+C225*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C225" s="4">
+        <v>1</v>
+      </c>
+      <c r="D225" s="4">
+        <v>26</v>
+      </c>
+      <c r="E225" s="6">
+        <f t="shared" si="18"/>
+        <v>1.8139534883720929</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="19"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="14"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15" customHeight="1">
+      <c r="A226">
+        <f t="shared" si="17"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B226" s="5">
+        <f>2+C226*(C226*($J$4+2)+C226*($J$4+2)+(C226*LOG10(C226))+3*$J$6+$J$5)+(1+C226*(2+$J$4))+(1+C226*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C226" s="4">
+        <v>5</v>
+      </c>
+      <c r="D226" s="4">
+        <v>26</v>
+      </c>
+      <c r="E226" s="6">
+        <f t="shared" si="18"/>
+        <v>4.9428863258171667</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="19"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="14"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15" customHeight="1">
+      <c r="A227">
+        <f t="shared" si="17"/>
+        <v>1442</v>
+      </c>
+      <c r="B227" s="5">
+        <f>2+C227*(C227*($J$4+2)+C227*($J$4+2)+(C227*LOG10(C227))+3*$J$6+$J$5)+(1+C227*(2+$J$4))+(1+C227*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C227" s="4">
+        <v>10</v>
+      </c>
+      <c r="D227" s="4">
+        <v>26</v>
+      </c>
+      <c r="E227" s="6">
+        <f t="shared" si="18"/>
+        <v>8.0936639118457272</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="19"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="14"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1">
+      <c r="A228">
+        <f t="shared" si="17"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B228" s="5">
+        <f>2+C228*(C228*($J$4+2)+C228*($J$4+2)+(C228*LOG10(C228))+3*$J$6+$J$5)+(1+C228*(2+$J$4))+(1+C228*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C228" s="4">
+        <v>50</v>
+      </c>
+      <c r="D228" s="4">
+        <v>26</v>
+      </c>
+      <c r="E228" s="6">
+        <f t="shared" si="18"/>
+        <v>18.108781332187341</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="19"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="14"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1">
+      <c r="A229">
+        <f t="shared" si="17"/>
+        <v>141402</v>
+      </c>
+      <c r="B229" s="5">
+        <f>2+C229*(C229*($J$4+2)+C229*($J$4+2)+(C229*LOG10(C229))+3*$J$6+$J$5)+(1+C229*(2+$J$4))+(1+C229*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C229" s="4">
+        <v>100</v>
+      </c>
+      <c r="D229" s="4">
+        <v>26</v>
+      </c>
+      <c r="E229" s="6">
+        <f t="shared" si="18"/>
+        <v>21.419415210083042</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="19"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="14"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15" customHeight="1">
+      <c r="A230">
+        <f t="shared" si="17"/>
+        <v>15014002</v>
+      </c>
+      <c r="B230" s="5">
+        <f>2+C230*(C230*($J$4+2)+C230*($J$4+2)+(C230*LOG10(C230))+3*$J$6+$J$5)+(1+C230*(2+$J$4))+(1+C230*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C230" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D230" s="4">
+        <v>26</v>
+      </c>
+      <c r="E230" s="6">
+        <f t="shared" si="18"/>
+        <v>25.490230073072002</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="19"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="14"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15" customHeight="1">
+      <c r="A231">
+        <f t="shared" si="17"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B231" s="5">
+        <f>2+C231*(C231*($J$4+2)+C231*($J$4+2)+(C231*LOG10(C231))+3*$J$6+$J$5)+(1+C231*(2+$J$4))+(1+C231*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C231" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D231" s="4">
+        <v>26</v>
+      </c>
+      <c r="E231" s="6">
+        <f t="shared" si="18"/>
+        <v>25.951341033519181</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="19"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="14"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15" customHeight="1">
+      <c r="A232">
+        <f t="shared" si="17"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B232" s="5">
+        <f>2+C232*(C232*($J$4+2)+C232*($J$4+2)+(C232*LOG10(C232))+3*$J$6+$J$5)+(1+C232*(2+$J$4))+(1+C232*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C232" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D232" s="4">
+        <v>26</v>
+      </c>
+      <c r="E232" s="6">
+        <f t="shared" si="18"/>
+        <v>25.990661441357894</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="19"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="14"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15" customHeight="1">
+      <c r="A233">
+        <f>2+C233*(C233*($J$4+2)+C233*($J$4+2)+(C233*LOG10(C233))+3*$J$6+$J$5)</f>
+        <v>28</v>
+      </c>
+      <c r="B233" s="5">
+        <f>2+C233*(C233*($J$4+2)+C233*($J$4+2)+(C233*LOG10(C233))+3*$J$6+$J$5)+(1+C233*(2+$J$4))+(1+C233*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C233" s="4">
+        <v>1</v>
+      </c>
+      <c r="D233" s="4">
+        <v>27</v>
+      </c>
+      <c r="E233" s="4">
+        <f>1/(G233+(F233/D233))</f>
+        <v>1.8161434977578477</v>
+      </c>
+      <c r="F233">
+        <f>A233/B233</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G233">
+        <f>1-F233</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15" customHeight="1">
+      <c r="A234">
+        <f t="shared" ref="A234:A280" si="20">2+C234*(C234*($J$4+2)+C234*($J$4+2)+(C234*LOG10(C234))+3*$J$6+$J$5)</f>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B234" s="5">
+        <f>2+C234*(C234*($J$4+2)+C234*($J$4+2)+(C234*LOG10(C234))+3*$J$6+$J$5)+(1+C234*(2+$J$4))+(1+C234*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C234" s="4">
+        <v>5</v>
+      </c>
+      <c r="D234" s="4">
+        <v>27</v>
+      </c>
+      <c r="E234" s="6">
+        <f>1/(G234+(F234/D234))</f>
+        <v>4.9719289192224068</v>
+      </c>
+      <c r="F234">
+        <f>A234/B234</f>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G234">
+        <f t="shared" ref="G234:G280" si="21">1-F234</f>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15" customHeight="1">
+      <c r="A235">
+        <f t="shared" si="20"/>
+        <v>1442</v>
+      </c>
+      <c r="B235" s="5">
+        <f>2+C235*(C235*($J$4+2)+C235*($J$4+2)+(C235*LOG10(C235))+3*$J$6+$J$5)+(1+C235*(2+$J$4))+(1+C235*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C235" s="4">
+        <v>10</v>
+      </c>
+      <c r="D235" s="4">
+        <v>27</v>
+      </c>
+      <c r="E235" s="6">
+        <f t="shared" ref="E235:E280" si="22">1/(G235+(F235/D235))</f>
+        <v>8.1796246648793556</v>
+      </c>
+      <c r="F235">
+        <f t="shared" ref="F235:F280" si="23">A235/B235</f>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="21"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1">
+      <c r="A236">
+        <f t="shared" si="20"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B236" s="5">
+        <f>2+C236*(C236*($J$4+2)+C236*($J$4+2)+(C236*LOG10(C236))+3*$J$6+$J$5)+(1+C236*(2+$J$4))+(1+C236*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C236" s="4">
+        <v>50</v>
+      </c>
+      <c r="D236" s="4">
+        <v>27</v>
+      </c>
+      <c r="E236" s="6">
+        <f t="shared" si="22"/>
+        <v>18.579709004139175</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="23"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="21"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1">
+      <c r="A237">
+        <f t="shared" si="20"/>
+        <v>141402</v>
+      </c>
+      <c r="B237" s="5">
+        <f>2+C237*(C237*($J$4+2)+C237*($J$4+2)+(C237*LOG10(C237))+3*$J$6+$J$5)+(1+C237*(2+$J$4))+(1+C237*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C237" s="4">
+        <v>100</v>
+      </c>
+      <c r="D237" s="4">
+        <v>27</v>
+      </c>
+      <c r="E237" s="6">
+        <f t="shared" si="22"/>
+        <v>22.087586467976713</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="23"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="21"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1">
+      <c r="A238">
+        <f t="shared" si="20"/>
+        <v>15014002</v>
+      </c>
+      <c r="B238" s="5">
+        <f>2+C238*(C238*($J$4+2)+C238*($J$4+2)+(C238*LOG10(C238))+3*$J$6+$J$5)+(1+C238*(2+$J$4))+(1+C238*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C238" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D238" s="4">
+        <v>27</v>
+      </c>
+      <c r="E238" s="6">
+        <f t="shared" si="22"/>
+        <v>26.449879916878647</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="23"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="21"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1">
+      <c r="A239">
+        <f t="shared" si="20"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B239" s="5">
+        <f>2+C239*(C239*($J$4+2)+C239*($J$4+2)+(C239*LOG10(C239))+3*$J$6+$J$5)+(1+C239*(2+$J$4))+(1+C239*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C239" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D239" s="4">
+        <v>27</v>
+      </c>
+      <c r="E239" s="6">
+        <f t="shared" si="22"/>
+        <v>26.947452249922577</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="23"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="21"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1">
+      <c r="A240">
+        <f t="shared" si="20"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B240" s="5">
+        <f>2+C240*(C240*($J$4+2)+C240*($J$4+2)+(C240*LOG10(C240))+3*$J$6+$J$5)+(1+C240*(2+$J$4))+(1+C240*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C240" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D240" s="4">
+        <v>27</v>
+      </c>
+      <c r="E240" s="6">
+        <f t="shared" si="22"/>
+        <v>26.989914501565018</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="23"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="21"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1">
+      <c r="A241">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="B241" s="5">
+        <f>2+C241*(C241*($J$4+2)+C241*($J$4+2)+(C241*LOG10(C241))+3*$J$6+$J$5)+(1+C241*(2+$J$4))+(1+C241*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C241" s="4">
+        <v>1</v>
+      </c>
+      <c r="D241" s="4">
+        <v>28</v>
+      </c>
+      <c r="E241" s="6">
+        <f t="shared" si="22"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="23"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="21"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1">
+      <c r="A242">
+        <f t="shared" si="20"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B242" s="5">
+        <f>2+C242*(C242*($J$4+2)+C242*($J$4+2)+(C242*LOG10(C242))+3*$J$6+$J$5)+(1+C242*(2+$J$4))+(1+C242*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C242" s="4">
+        <v>5</v>
+      </c>
+      <c r="D242" s="4">
+        <v>28</v>
+      </c>
+      <c r="E242" s="6">
+        <f t="shared" si="22"/>
+        <v>4.9992043095661804</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="23"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="21"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1">
+      <c r="A243">
+        <f t="shared" si="20"/>
+        <v>1442</v>
+      </c>
+      <c r="B243" s="5">
+        <f>2+C243*(C243*($J$4+2)+C243*($J$4+2)+(C243*LOG10(C243))+3*$J$6+$J$5)+(1+C243*(2+$J$4))+(1+C243*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C243" s="4">
+        <v>10</v>
+      </c>
+      <c r="D243" s="4">
+        <v>28</v>
+      </c>
+      <c r="E243" s="6">
+        <f t="shared" si="22"/>
+        <v>8.2610966057441235</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="23"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="21"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1">
+      <c r="A244">
+        <f t="shared" si="20"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B244" s="5">
+        <f>2+C244*(C244*($J$4+2)+C244*($J$4+2)+(C244*LOG10(C244))+3*$J$6+$J$5)+(1+C244*(2+$J$4))+(1+C244*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C244" s="4">
+        <v>50</v>
+      </c>
+      <c r="D244" s="4">
+        <v>28</v>
+      </c>
+      <c r="E244" s="6">
+        <f t="shared" si="22"/>
+        <v>19.039473289892459</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="23"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="21"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1">
+      <c r="A245">
+        <f t="shared" si="20"/>
+        <v>141402</v>
+      </c>
+      <c r="B245" s="5">
+        <f>2+C245*(C245*($J$4+2)+C245*($J$4+2)+(C245*LOG10(C245))+3*$J$6+$J$5)+(1+C245*(2+$J$4))+(1+C245*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C245" s="4">
+        <v>100</v>
+      </c>
+      <c r="D245" s="4">
+        <v>28</v>
+      </c>
+      <c r="E245" s="6">
+        <f t="shared" si="22"/>
+        <v>22.746471332065003</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="23"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="21"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1">
+      <c r="A246">
+        <f t="shared" si="20"/>
+        <v>15014002</v>
+      </c>
+      <c r="B246" s="5">
+        <f>2+C246*(C246*($J$4+2)+C246*($J$4+2)+(C246*LOG10(C246))+3*$J$6+$J$5)+(1+C246*(2+$J$4))+(1+C246*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C246" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D246" s="4">
+        <v>28</v>
+      </c>
+      <c r="E246" s="6">
+        <f t="shared" si="22"/>
+        <v>27.408026885269713</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="23"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="21"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1">
+      <c r="A247">
+        <f t="shared" si="20"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B247" s="5">
+        <f>2+C247*(C247*($J$4+2)+C247*($J$4+2)+(C247*LOG10(C247))+3*$J$6+$J$5)+(1+C247*(2+$J$4))+(1+C247*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C247" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D247" s="4">
+        <v>28</v>
+      </c>
+      <c r="E247" s="6">
+        <f t="shared" si="22"/>
+        <v>27.943414350982916</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="23"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="21"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1">
+      <c r="A248">
+        <f t="shared" si="20"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B248" s="5">
+        <f>2+C248*(C248*($J$4+2)+C248*($J$4+2)+(C248*LOG10(C248))+3*$J$6+$J$5)+(1+C248*(2+$J$4))+(1+C248*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C248" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D248" s="4">
+        <v>28</v>
+      </c>
+      <c r="E248" s="6">
+        <f t="shared" si="22"/>
+        <v>27.989138850033132</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="23"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="21"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15" customHeight="1">
+      <c r="A249">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="B249" s="5">
+        <f>2+C249*(C249*($J$4+2)+C249*($J$4+2)+(C249*LOG10(C249))+3*$J$6+$J$5)+(1+C249*(2+$J$4))+(1+C249*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C249" s="4">
+        <v>1</v>
+      </c>
+      <c r="D249" s="4">
+        <v>29</v>
+      </c>
+      <c r="E249" s="6">
+        <f t="shared" si="22"/>
+        <v>1.8200836820083683</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="23"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="21"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15" customHeight="1">
+      <c r="A250">
+        <f t="shared" si="20"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B250" s="5">
+        <f>2+C250*(C250*($J$4+2)+C250*($J$4+2)+(C250*LOG10(C250))+3*$J$6+$J$5)+(1+C250*(2+$J$4))+(1+C250*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C250" s="4">
+        <v>5</v>
+      </c>
+      <c r="D250" s="4">
+        <v>29</v>
+      </c>
+      <c r="E250" s="6">
+        <f t="shared" si="22"/>
+        <v>5.0248690322851077</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="23"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="21"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15" customHeight="1">
+      <c r="A251">
+        <f t="shared" si="20"/>
+        <v>1442</v>
+      </c>
+      <c r="B251" s="5">
+        <f>2+C251*(C251*($J$4+2)+C251*($J$4+2)+(C251*LOG10(C251))+3*$J$6+$J$5)+(1+C251*(2+$J$4))+(1+C251*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C251" s="4">
+        <v>10</v>
+      </c>
+      <c r="D251" s="4">
+        <v>29</v>
+      </c>
+      <c r="E251" s="6">
+        <f t="shared" si="22"/>
+        <v>8.3384223918575042</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="23"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="21"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15" customHeight="1">
+      <c r="A252">
+        <f t="shared" si="20"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B252" s="5">
+        <f>2+C252*(C252*($J$4+2)+C252*($J$4+2)+(C252*LOG10(C252))+3*$J$6+$J$5)+(1+C252*(2+$J$4))+(1+C252*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C252" s="4">
+        <v>50</v>
+      </c>
+      <c r="D252" s="4">
+        <v>29</v>
+      </c>
+      <c r="E252" s="6">
+        <f t="shared" si="22"/>
+        <v>19.488466483493934</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="23"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="21"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15" customHeight="1">
+      <c r="A253">
+        <f t="shared" si="20"/>
+        <v>141402</v>
+      </c>
+      <c r="B253" s="5">
+        <f>2+C253*(C253*($J$4+2)+C253*($J$4+2)+(C253*LOG10(C253))+3*$J$6+$J$5)+(1+C253*(2+$J$4))+(1+C253*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C253" s="4">
+        <v>100</v>
+      </c>
+      <c r="D253" s="4">
+        <v>29</v>
+      </c>
+      <c r="E253" s="6">
+        <f t="shared" si="22"/>
+        <v>23.396262062879678</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="23"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="21"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15" customHeight="1">
+      <c r="A254">
+        <f t="shared" si="20"/>
+        <v>15014002</v>
+      </c>
+      <c r="B254" s="5">
+        <f>2+C254*(C254*($J$4+2)+C254*($J$4+2)+(C254*LOG10(C254))+3*$J$6+$J$5)+(1+C254*(2+$J$4))+(1+C254*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C254" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D254" s="4">
+        <v>29</v>
+      </c>
+      <c r="E254" s="6">
+        <f t="shared" si="22"/>
+        <v>28.364674505887066</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="23"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="21"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15" customHeight="1">
+      <c r="A255">
+        <f t="shared" si="20"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B255" s="5">
+        <f>2+C255*(C255*($J$4+2)+C255*($J$4+2)+(C255*LOG10(C255))+3*$J$6+$J$5)+(1+C255*(2+$J$4))+(1+C255*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C255" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D255" s="4">
+        <v>29</v>
+      </c>
+      <c r="E255" s="6">
+        <f t="shared" si="22"/>
+        <v>28.939227370180994</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="23"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="21"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15" customHeight="1">
+      <c r="A256">
+        <f t="shared" si="20"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B256" s="5">
+        <f>2+C256*(C256*($J$4+2)+C256*($J$4+2)+(C256*LOG10(C256))+3*$J$6+$J$5)+(1+C256*(2+$J$4))+(1+C256*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C256" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D256" s="4">
+        <v>29</v>
+      </c>
+      <c r="E256" s="6">
+        <f t="shared" si="22"/>
+        <v>28.988334487999708</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="23"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="21"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="15" customHeight="1">
+      <c r="A257">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="B257" s="5">
+        <f>2+C257*(C257*($J$4+2)+C257*($J$4+2)+(C257*LOG10(C257))+3*$J$6+$J$5)+(1+C257*(2+$J$4))+(1+C257*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C257" s="4">
+        <v>1</v>
+      </c>
+      <c r="D257" s="4">
+        <v>30</v>
+      </c>
+      <c r="E257" s="6">
+        <f t="shared" si="22"/>
+        <v>1.8218623481781377</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="23"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="21"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="15" customHeight="1">
+      <c r="A258">
+        <f t="shared" si="20"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B258" s="5">
+        <f>2+C258*(C258*($J$4+2)+C258*($J$4+2)+(C258*LOG10(C258))+3*$J$6+$J$5)+(1+C258*(2+$J$4))+(1+C258*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C258" s="4">
+        <v>5</v>
+      </c>
+      <c r="D258" s="4">
+        <v>30</v>
+      </c>
+      <c r="E258" s="6">
+        <f t="shared" si="22"/>
+        <v>5.0490616655467235</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="23"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="21"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15" customHeight="1">
+      <c r="A259">
+        <f t="shared" si="20"/>
+        <v>1442</v>
+      </c>
+      <c r="B259" s="5">
+        <f>2+C259*(C259*($J$4+2)+C259*($J$4+2)+(C259*LOG10(C259))+3*$J$6+$J$5)+(1+C259*(2+$J$4))+(1+C259*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C259" s="4">
+        <v>10</v>
+      </c>
+      <c r="D259" s="4">
+        <v>30</v>
+      </c>
+      <c r="E259" s="6">
+        <f t="shared" si="22"/>
+        <v>8.4119106699751836</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="23"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="21"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15" customHeight="1">
+      <c r="A260">
+        <f t="shared" si="20"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B260" s="5">
+        <f>2+C260*(C260*($J$4+2)+C260*($J$4+2)+(C260*LOG10(C260))+3*$J$6+$J$5)+(1+C260*(2+$J$4))+(1+C260*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C260" s="4">
+        <v>50</v>
+      </c>
+      <c r="D260" s="4">
+        <v>30</v>
+      </c>
+      <c r="E260" s="6">
+        <f t="shared" si="22"/>
+        <v>19.927062710929043</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="23"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="21"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="15" customHeight="1">
+      <c r="A261">
+        <f t="shared" si="20"/>
+        <v>141402</v>
+      </c>
+      <c r="B261" s="5">
+        <f>2+C261*(C261*($J$4+2)+C261*($J$4+2)+(C261*LOG10(C261))+3*$J$6+$J$5)+(1+C261*(2+$J$4))+(1+C261*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C261" s="4">
+        <v>100</v>
+      </c>
+      <c r="D261" s="4">
+        <v>30</v>
+      </c>
+      <c r="E261" s="6">
+        <f t="shared" si="22"/>
+        <v>24.037145650048849</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="23"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="21"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15" customHeight="1">
+      <c r="A262">
+        <f t="shared" si="20"/>
+        <v>15014002</v>
+      </c>
+      <c r="B262" s="5">
+        <f>2+C262*(C262*($J$4+2)+C262*($J$4+2)+(C262*LOG10(C262))+3*$J$6+$J$5)+(1+C262*(2+$J$4))+(1+C262*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C262" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D262" s="4">
+        <v>30</v>
+      </c>
+      <c r="E262" s="6">
+        <f t="shared" si="22"/>
+        <v>29.319826295340821</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="23"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="21"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15" customHeight="1">
+      <c r="A263">
+        <f t="shared" si="20"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B263" s="5">
+        <f>2+C263*(C263*($J$4+2)+C263*($J$4+2)+(C263*LOG10(C263))+3*$J$6+$J$5)+(1+C263*(2+$J$4))+(1+C263*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C263" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D263" s="4">
+        <v>30</v>
+      </c>
+      <c r="E263" s="6">
+        <f t="shared" si="22"/>
+        <v>29.934891340987555</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="23"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="21"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15" customHeight="1">
+      <c r="A264">
+        <f t="shared" si="20"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B264" s="5">
+        <f>2+C264*(C264*($J$4+2)+C264*($J$4+2)+(C264*LOG10(C264))+3*$J$6+$J$5)+(1+C264*(2+$J$4))+(1+C264*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C264" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D264" s="4">
+        <v>30</v>
+      </c>
+      <c r="E264" s="6">
+        <f t="shared" si="22"/>
+        <v>29.98750141670212</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="23"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="21"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15" customHeight="1">
+      <c r="A265">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="B265" s="5">
+        <f>2+C265*(C265*($J$4+2)+C265*($J$4+2)+(C265*LOG10(C265))+3*$J$6+$J$5)+(1+C265*(2+$J$4))+(1+C265*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C265" s="4">
+        <v>1</v>
+      </c>
+      <c r="D265" s="4">
+        <v>31</v>
+      </c>
+      <c r="E265" s="6">
+        <f t="shared" si="22"/>
+        <v>1.8235294117647061</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="23"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="21"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15" customHeight="1">
+      <c r="A266">
+        <f t="shared" si="20"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B266" s="5">
+        <f>2+C266*(C266*($J$4+2)+C266*($J$4+2)+(C266*LOG10(C266))+3*$J$6+$J$5)+(1+C266*(2+$J$4))+(1+C266*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C266" s="4">
+        <v>5</v>
+      </c>
+      <c r="D266" s="4">
+        <v>31</v>
+      </c>
+      <c r="E266" s="6">
+        <f t="shared" si="22"/>
+        <v>5.0719053334633069</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="23"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="21"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15" customHeight="1">
+      <c r="A267">
+        <f t="shared" si="20"/>
+        <v>1442</v>
+      </c>
+      <c r="B267" s="5">
+        <f>2+C267*(C267*($J$4+2)+C267*($J$4+2)+(C267*LOG10(C267))+3*$J$6+$J$5)+(1+C267*(2+$J$4))+(1+C267*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C267" s="4">
+        <v>10</v>
+      </c>
+      <c r="D267" s="4">
+        <v>31</v>
+      </c>
+      <c r="E267" s="6">
+        <f t="shared" si="22"/>
+        <v>8.4818401937045973</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="23"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="21"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15" customHeight="1">
+      <c r="A268">
+        <f t="shared" si="20"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B268" s="5">
+        <f>2+C268*(C268*($J$4+2)+C268*($J$4+2)+(C268*LOG10(C268))+3*$J$6+$J$5)+(1+C268*(2+$J$4))+(1+C268*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C268" s="4">
+        <v>50</v>
+      </c>
+      <c r="D268" s="4">
+        <v>31</v>
+      </c>
+      <c r="E268" s="6">
+        <f t="shared" si="22"/>
+        <v>20.355618969841125</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="23"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="21"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15" customHeight="1">
+      <c r="A269">
+        <f t="shared" si="20"/>
+        <v>141402</v>
+      </c>
+      <c r="B269" s="5">
+        <f>2+C269*(C269*($J$4+2)+C269*($J$4+2)+(C269*LOG10(C269))+3*$J$6+$J$5)+(1+C269*(2+$J$4))+(1+C269*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C269" s="4">
+        <v>100</v>
+      </c>
+      <c r="D269" s="4">
+        <v>31</v>
+      </c>
+      <c r="E269" s="6">
+        <f t="shared" si="22"/>
+        <v>24.669303991697419</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="23"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="21"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15" customHeight="1">
+      <c r="A270">
+        <f t="shared" si="20"/>
+        <v>15014002</v>
+      </c>
+      <c r="B270" s="5">
+        <f>2+C270*(C270*($J$4+2)+C270*($J$4+2)+(C270*LOG10(C270))+3*$J$6+$J$5)+(1+C270*(2+$J$4))+(1+C270*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C270" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D270" s="4">
+        <v>31</v>
+      </c>
+      <c r="E270" s="6">
+        <f t="shared" si="22"/>
+        <v>30.273485759252388</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="23"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="21"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15" customHeight="1">
+      <c r="A271">
+        <f t="shared" si="20"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B271" s="5">
+        <f>2+C271*(C271*($J$4+2)+C271*($J$4+2)+(C271*LOG10(C271))+3*$J$6+$J$5)+(1+C271*(2+$J$4))+(1+C271*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C271" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D271" s="4">
+        <v>31</v>
+      </c>
+      <c r="E271" s="6">
+        <f t="shared" si="22"/>
+        <v>30.930406296863346</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="23"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="21"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15" customHeight="1">
+      <c r="A272">
+        <f t="shared" si="20"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B272" s="5">
+        <f>2+C272*(C272*($J$4+2)+C272*($J$4+2)+(C272*LOG10(C272))+3*$J$6+$J$5)+(1+C272*(2+$J$4))+(1+C272*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C272" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D272" s="4">
+        <v>31</v>
+      </c>
+      <c r="E272" s="6">
+        <f t="shared" si="22"/>
+        <v>30.986639637377678</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="23"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="21"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15" customHeight="1">
+      <c r="A273">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="B273" s="5">
+        <f>2+C273*(C273*($J$4+2)+C273*($J$4+2)+(C273*LOG10(C273))+3*$J$6+$J$5)+(1+C273*(2+$J$4))+(1+C273*(2+$J$4))+$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4">
+        <v>32</v>
+      </c>
+      <c r="E273" s="6">
+        <f t="shared" si="22"/>
+        <v>1.8250950570342208</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="23"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G273">
+        <f t="shared" si="21"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="15" customHeight="1">
+      <c r="A274">
+        <f t="shared" si="20"/>
+        <v>389.4742501084005</v>
+      </c>
+      <c r="B274" s="5">
+        <f>2+C274*(C274*($J$4+2)+C274*($J$4+2)+(C274*LOG10(C274))+3*$J$6+$J$5)+(1+C274*(2+$J$4))+(1+C274*(2+$J$4))+$F$8</f>
+        <v>469.4742501084005</v>
+      </c>
+      <c r="C274" s="4">
+        <v>5</v>
+      </c>
+      <c r="D274" s="4">
+        <v>32</v>
+      </c>
+      <c r="E274" s="6">
+        <f t="shared" si="22"/>
+        <v>5.0935098019305238</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="23"/>
+        <v>0.82959661795821993</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="21"/>
+        <v>0.17040338204178007</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15" customHeight="1">
+      <c r="A275">
+        <f t="shared" si="20"/>
+        <v>1442</v>
+      </c>
+      <c r="B275" s="5">
+        <f>2+C275*(C275*($J$4+2)+C275*($J$4+2)+(C275*LOG10(C275))+3*$J$6+$J$5)+(1+C275*(2+$J$4))+(1+C275*(2+$J$4))+$F$8</f>
+        <v>1582</v>
+      </c>
+      <c r="C275" s="4">
+        <v>10</v>
+      </c>
+      <c r="D275" s="4">
+        <v>32</v>
+      </c>
+      <c r="E275" s="6">
+        <f t="shared" si="22"/>
+        <v>8.5484633569739934</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="23"/>
+        <v>0.91150442477876104</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="21"/>
+        <v>8.8495575221238965E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15" customHeight="1">
+      <c r="A276">
+        <f t="shared" si="20"/>
+        <v>34949.425010840052</v>
+      </c>
+      <c r="B276" s="5">
+        <f>2+C276*(C276*($J$4+2)+C276*($J$4+2)+(C276*LOG10(C276))+3*$J$6+$J$5)+(1+C276*(2+$J$4))+(1+C276*(2+$J$4))+$F$8</f>
+        <v>35569.425010840052</v>
+      </c>
+      <c r="C276" s="4">
+        <v>50</v>
+      </c>
+      <c r="D276" s="4">
+        <v>32</v>
+      </c>
+      <c r="E276" s="6">
+        <f t="shared" si="22"/>
+        <v>20.774476098657463</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="23"/>
+        <v>0.98256929934034498</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="21"/>
+        <v>1.7430700659655018E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15" customHeight="1">
+      <c r="A277">
+        <f t="shared" si="20"/>
+        <v>141402</v>
+      </c>
+      <c r="B277" s="5">
+        <f>2+C277*(C277*($J$4+2)+C277*($J$4+2)+(C277*LOG10(C277))+3*$J$6+$J$5)+(1+C277*(2+$J$4))+(1+C277*(2+$J$4))+$F$8</f>
+        <v>142622</v>
+      </c>
+      <c r="C277" s="4">
+        <v>100</v>
+      </c>
+      <c r="D277" s="4">
+        <v>32</v>
+      </c>
+      <c r="E277" s="6">
+        <f t="shared" si="22"/>
+        <v>25.292914066569836</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="23"/>
+        <v>0.9914459199842941</v>
+      </c>
+      <c r="G277">
+        <f t="shared" si="21"/>
+        <v>8.5540800157059005E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15" customHeight="1">
+      <c r="A278">
+        <f t="shared" si="20"/>
+        <v>15014002</v>
+      </c>
+      <c r="B278" s="5">
+        <f>2+C278*(C278*($J$4+2)+C278*($J$4+2)+(C278*LOG10(C278))+3*$J$6+$J$5)+(1+C278*(2+$J$4))+(1+C278*(2+$J$4))+$F$8</f>
+        <v>15026022</v>
+      </c>
+      <c r="C278" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D278" s="4">
+        <v>32</v>
+      </c>
+      <c r="E278" s="6">
+        <f t="shared" si="22"/>
+        <v>31.22565639229742</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="23"/>
+        <v>0.99920005441227222</v>
+      </c>
+      <c r="G278">
+        <f t="shared" si="21"/>
+        <v>7.9994558772777946E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15" customHeight="1">
+      <c r="A279">
+        <f t="shared" si="20"/>
+        <v>1600140002</v>
+      </c>
+      <c r="B279" s="5">
+        <f>2+C279*(C279*($J$4+2)+C279*($J$4+2)+(C279*LOG10(C279))+3*$J$6+$J$5)+(1+C279*(2+$J$4))+(1+C279*(2+$J$4))+$F$8</f>
+        <v>1600260022</v>
+      </c>
+      <c r="C279" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D279" s="4">
+        <v>32</v>
+      </c>
+      <c r="E279" s="6">
+        <f t="shared" si="22"/>
+        <v>31.925772271259103</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="23"/>
+        <v>0.99992499968858184</v>
+      </c>
+      <c r="G279">
+        <f t="shared" si="21"/>
+        <v>7.500031141816077E-5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15" customHeight="1">
+      <c r="A280">
+        <f t="shared" si="20"/>
+        <v>41748125012.84005</v>
+      </c>
+      <c r="B280" s="5">
+        <f>2+C280*(C280*($J$4+2)+C280*($J$4+2)+(C280*LOG10(C280))+3*$J$6+$J$5)+(1+C280*(2+$J$4))+(1+C280*(2+$J$4))+$F$8</f>
+        <v>41748725032.84005</v>
+      </c>
+      <c r="C280" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D280" s="4">
+        <v>32</v>
+      </c>
+      <c r="E280" s="6">
+        <f t="shared" si="22"/>
+        <v>31.985749151263615</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="23"/>
+        <v>0.99998562782457356</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="21"/>
+        <v>1.4372175426435874E-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
